--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>380419.3506513537</v>
+        <v>382258.627685945</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3019278.533866166</v>
+        <v>3019278.533866164</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19135095.96052066</v>
+        <v>19135095.96052065</v>
       </c>
     </row>
     <row r="9">
@@ -659,73 +659,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U2" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,52 +753,52 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="I3" t="n">
-        <v>23.55470292302859</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W3" t="n">
-        <v>27.59002526031614</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>22.4487593605094</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>19.72731862540288</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>24.30129424928645</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,35 +914,35 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>27.59002526031614</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>25.04785205983618</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="V8" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S8" t="n">
+      <c r="W8" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C9" t="n">
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="Y9" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.1792675346265591</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K10" t="n">
-        <v>19.72731862540289</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1330,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>51.34070774950003</v>
+      </c>
+      <c r="U11" t="n">
         <v>45.22089538575963</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>45.22089538575963</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,16 +1503,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>45.22089538575965</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,22 +1537,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.22089538575963</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.808146638151134</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.41274874760851</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="G14" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>45.22089538575963</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.22089538575963</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>45.22089538575965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>45.22089538575966</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="V15" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="X15" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1777,19 +1777,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>37.41274874760847</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.808146638151134</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>45.22089538575963</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1853,55 +1853,55 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="G17" t="n">
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="H17" t="n">
+      <c r="U17" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="I17" t="n">
+      <c r="V17" t="n">
         <v>52.05120837755636</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,61 +1923,61 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>59.09537735871524</v>
       </c>
       <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>52.05120837755636</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>59.09537735871524</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>59.09537735871524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.15758992609768</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>59.09537735871524</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>59.09537735871524</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>59.09537735871524</v>
-      </c>
-      <c r="R19" t="n">
-        <v>59.09537735871524</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>59.09537735871524</v>
-      </c>
-      <c r="V19" t="n">
-        <v>37.15758992609768</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,67 +2087,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>278.0314889014992</v>
+      </c>
+      <c r="W20" t="n">
         <v>315.6579120135099</v>
       </c>
-      <c r="F20" t="n">
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>315.6579120135099</v>
-      </c>
-      <c r="G20" t="n">
-        <v>315.6579120135099</v>
-      </c>
-      <c r="H20" t="n">
-        <v>278.0314889014992</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.1950478650214</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.903128749000238</v>
+        <v>110.8015433829322</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>84.28486096200552</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>90.9397140422633</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.5662932341379</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>149.2156631176576</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>218.4467988751303</v>
       </c>
       <c r="T22" t="n">
-        <v>218.4467988751303</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2318,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
         <v>315.6579120135099</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>36.67310264028641</v>
+        <v>199.7780241458334</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>132.4383472005673</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>202.6968062865256</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.8811447876301</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>78.25346475566586</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.8015433829322</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>82.68066112159259</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>166.3352466121557</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>171.6966923710254</v>
       </c>
       <c r="S25" t="n">
-        <v>218.4467988751303</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.75010650410486</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>278.0314889014992</v>
       </c>
       <c r="C26" t="n">
-        <v>315.65791201351</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>172.030231981546</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>315.65791201351</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>199.7780241458334</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.8811447876301</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2637,22 +2637,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>116.8288393825362</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>110.8015433829322</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>84.28486096200552</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>90.9397140422633</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.9254190080863</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>198.2075556949706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>218.4467988751302</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.4467988751303</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>315.6579120135099</v>
       </c>
       <c r="D29" t="n">
-        <v>7.230793579387868</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>315.6579120135099</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>132.4383472005673</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>202.6968062865256</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3234538485287</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>278.0314889014992</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2886,7 +2886,7 @@
         <v>137.1950478650214</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>7.564640737044735</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>32.74748677515245</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>199.5662932341379</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9316143639887</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>218.4467988751303</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>278.0314889014992</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>278.0314889014992</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>315.6579120135099</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.6579120135099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>99.73599504172942</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.8015433829322</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>84.28486096200552</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>90.9397140422633</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>162.5207900010354</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.19997777650241</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>218.4467988751303</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="G35" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="H35" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.8811447876301</v>
+        <v>5.788433916497456</v>
       </c>
       <c r="U35" t="n">
-        <v>35.23074297739623</v>
+        <v>251.3234538485287</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>50.46644515806454</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.15108307643863</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>151.7072722761615</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>66.73952659896877</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>218.4467988751303</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>221.8811447876301</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3234538485287</v>
       </c>
       <c r="V38" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="W38" t="n">
-        <v>124.4411662151966</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>165.0249418909941</v>
       </c>
       <c r="Y38" t="n">
-        <v>291.907229524326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>47.48600655013477</v>
+        <v>110.8015433829322</v>
       </c>
       <c r="I39" t="n">
-        <v>84.28486096200552</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>90.9397140422633</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.9254190080863</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>230.2387565452468</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3712,16 +3712,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>218.4467988751303</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>250.2815747732297</v>
       </c>
       <c r="E41" t="n">
-        <v>284.1525599151108</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="F41" t="n">
-        <v>284.1525599151108</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>284.1525599151108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1.477727327127855</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1950478650214</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>110.8015433829322</v>
       </c>
       <c r="I42" t="n">
-        <v>84.28486096200552</v>
+        <v>65.3125556987541</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.73923804635817</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>142.7075608287721</v>
+        <v>218.4467988751303</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>24.30129424928642</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.30129424928648</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>27.59002526031611</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>27.59002526031611</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>24.30129424928642</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27.59002526031611</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.30129424928648</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
     </row>
     <row r="46">
@@ -4177,19 +4177,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="R46" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="S46" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>24.30129424928648</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>24.30129424928642</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>54.62267627294912</v>
       </c>
       <c r="C2" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D2" t="n">
         <v>30.07591440498301</v>
       </c>
       <c r="E2" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F2" t="n">
         <v>2.207202020825291</v>
@@ -4331,10 +4331,10 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K2" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L2" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M2" t="n">
         <v>83.04597603355158</v>
@@ -4358,19 +4358,19 @@
         <v>110.3601010412646</v>
       </c>
       <c r="T2" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="U2" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="V2" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="W2" t="n">
+        <v>110.3601010412646</v>
+      </c>
+      <c r="X2" t="n">
         <v>82.49138865710684</v>
-      </c>
-      <c r="U2" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="V2" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="W2" t="n">
-        <v>54.62267627294912</v>
-      </c>
-      <c r="X2" t="n">
-        <v>54.62267627294912</v>
       </c>
       <c r="Y2" t="n">
         <v>54.62267627294912</v>
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H3" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I3" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J3" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L3" t="n">
-        <v>29.52132702853827</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M3" t="n">
-        <v>29.52132702853827</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N3" t="n">
-        <v>29.52132702853827</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P3" t="n">
         <v>83.04597603355158</v>
@@ -4431,7 +4431,7 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R3" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S3" t="n">
         <v>82.49138865710684</v>
@@ -4440,19 +4440,19 @@
         <v>82.49138865710684</v>
       </c>
       <c r="U3" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V3" t="n">
-        <v>82.49138865710684</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.62267627294912</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="F4" t="n">
-        <v>4.078449383226349</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G4" t="n">
-        <v>4.078449383226349</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H4" t="n">
-        <v>4.078449383226349</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="I4" t="n">
-        <v>4.078449383226349</v>
+        <v>31.94716176738407</v>
       </c>
       <c r="J4" t="n">
         <v>4.078449383226349</v>
@@ -4504,34 +4504,34 @@
         <v>110.3601010412646</v>
       </c>
       <c r="P4" t="n">
-        <v>107.6111710058034</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.74245862164571</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R4" t="n">
-        <v>51.87374623748799</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S4" t="n">
-        <v>24.00503385333027</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.078449383226349</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.62267627294912</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="C5" t="n">
-        <v>54.62267627294912</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="D5" t="n">
-        <v>54.62267627294912</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="E5" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F5" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G5" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H5" t="n">
-        <v>30.07591440498301</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I5" t="n">
         <v>2.207202020825291</v>
@@ -4568,16 +4568,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L5" t="n">
-        <v>2.207202020825291</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M5" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N5" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O5" t="n">
         <v>83.04597603355158</v>
@@ -4586,31 +4586,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V5" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W5" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X5" t="n">
-        <v>82.49138865710684</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.62267627294912</v>
+        <v>44.53106090472204</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.07591440498301</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C6" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D6" t="n">
         <v>2.207202020825291</v>
@@ -4647,22 +4647,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M6" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N6" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O6" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q6" t="n">
         <v>110.3601010412646</v>
@@ -4686,10 +4686,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X6" t="n">
-        <v>85.81333917329844</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="F7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="G7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="H7" t="n">
-        <v>24.70163820858575</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I7" t="n">
-        <v>24.70163820858575</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J7" t="n">
         <v>24.70163820858575</v>
@@ -4741,34 +4741,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P7" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R7" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.70163820858575</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
         <v>2.207202020825291</v>
@@ -4826,28 +4826,28 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S8" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T8" t="n">
-        <v>54.62267627294912</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U8" t="n">
-        <v>54.62267627294912</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V8" t="n">
-        <v>54.62267627294912</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W8" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X8" t="n">
-        <v>54.62267627294912</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y8" t="n">
-        <v>26.7539638887914</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.07591440498301</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="C9" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="D9" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="E9" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="F9" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="G9" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H9" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="I9" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J9" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L9" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M9" t="n">
-        <v>29.52132702853827</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N9" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P9" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q9" t="n">
         <v>110.3601010412646</v>
@@ -4923,10 +4923,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X9" t="n">
-        <v>82.49138865710684</v>
+        <v>86.56747182608416</v>
       </c>
       <c r="Y9" t="n">
-        <v>57.94462678914073</v>
+        <v>58.69875944192644</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="C10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="D10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="E10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="F10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="G10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="H10" t="n">
-        <v>22.13378649092923</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="I10" t="n">
-        <v>22.13378649092923</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="J10" t="n">
-        <v>22.13378649092923</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K10" t="n">
         <v>2.207202020825291</v>
@@ -4978,34 +4978,34 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.87121125924466</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R10" t="n">
-        <v>50.00249887508694</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="W10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="X10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.13378649092923</v>
+        <v>108.4888536788635</v>
       </c>
     </row>
     <row r="11">
@@ -5015,61 +5015,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="C11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="D11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="E11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="F11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="G11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="H11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="I11" t="n">
         <v>4.107256619960003</v>
       </c>
       <c r="J11" t="n">
-        <v>4.107256619960003</v>
+        <v>15.59341310677051</v>
       </c>
       <c r="K11" t="n">
-        <v>4.107256619960003</v>
+        <v>66.42071377877554</v>
       </c>
       <c r="L11" t="n">
-        <v>54.93455729196504</v>
+        <v>117.2480144507806</v>
       </c>
       <c r="M11" t="n">
-        <v>105.7618579639701</v>
+        <v>168.0753151227856</v>
       </c>
       <c r="N11" t="n">
-        <v>156.5891586359751</v>
+        <v>185.587670980749</v>
       </c>
       <c r="O11" t="n">
-        <v>205.3628309980002</v>
+        <v>185.587670980749</v>
       </c>
       <c r="P11" t="n">
-        <v>205.3628309980002</v>
+        <v>185.587670980749</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="R11" t="n">
+        <v>205.3628309980001</v>
+      </c>
+      <c r="S11" t="n">
+        <v>205.3628309980001</v>
+      </c>
+      <c r="T11" t="n">
         <v>153.5035302409294</v>
-      </c>
-      <c r="S11" t="n">
-        <v>107.8258581341015</v>
-      </c>
-      <c r="T11" t="n">
-        <v>107.8258581341015</v>
       </c>
       <c r="U11" t="n">
         <v>107.8258581341015</v>
@@ -5078,13 +5078,13 @@
         <v>55.96655737703075</v>
       </c>
       <c r="W11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="X11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.96655737703075</v>
+        <v>4.107256619960003</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.107256619960003</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="C12" t="n">
-        <v>4.107256619960003</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="D12" t="n">
-        <v>4.107256619960003</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="E12" t="n">
-        <v>4.107256619960003</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="F12" t="n">
-        <v>4.107256619960003</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="G12" t="n">
-        <v>4.107256619960003</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="H12" t="n">
-        <v>4.107256619960003</v>
+        <v>55.96655737703075</v>
       </c>
       <c r="I12" t="n">
         <v>4.107256619960003</v>
@@ -5121,49 +5121,49 @@
         <v>17.2549530524518</v>
       </c>
       <c r="K12" t="n">
-        <v>68.08225372445683</v>
+        <v>17.2549530524518</v>
       </c>
       <c r="L12" t="n">
+        <v>52.88092898198503</v>
+      </c>
+      <c r="M12" t="n">
         <v>103.7082296539901</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>154.5355303259951</v>
       </c>
-      <c r="N12" t="n">
-        <v>205.3628309980002</v>
-      </c>
       <c r="O12" t="n">
-        <v>205.3628309980002</v>
+        <v>154.5355303259951</v>
       </c>
       <c r="P12" t="n">
-        <v>205.3628309980002</v>
+        <v>154.5355303259951</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="R12" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="S12" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="T12" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="U12" t="n">
+        <v>205.3628309980001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>205.3628309980001</v>
+      </c>
+      <c r="W12" t="n">
+        <v>205.3628309980001</v>
+      </c>
+      <c r="X12" t="n">
         <v>153.5035302409294</v>
       </c>
-      <c r="V12" t="n">
-        <v>101.6442294838587</v>
-      </c>
-      <c r="W12" t="n">
-        <v>55.96655737703075</v>
-      </c>
-      <c r="X12" t="n">
-        <v>55.96655737703075</v>
-      </c>
       <c r="Y12" t="n">
-        <v>55.96655737703075</v>
+        <v>153.5035302409294</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="C13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="E13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="F13" t="n">
-        <v>11.99427342617327</v>
+        <v>159.6851588911722</v>
       </c>
       <c r="G13" t="n">
-        <v>11.99427342617327</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="H13" t="n">
-        <v>11.99427342617327</v>
+        <v>55.96655737703075</v>
       </c>
       <c r="I13" t="n">
-        <v>11.99427342617327</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="J13" t="n">
-        <v>11.99427342617327</v>
+        <v>4.107256619960003</v>
       </c>
       <c r="K13" t="n">
         <v>4.107256619960003</v>
       </c>
       <c r="L13" t="n">
-        <v>49.74186917134772</v>
+        <v>49.7418691713477</v>
       </c>
       <c r="M13" t="n">
-        <v>100.5691698433528</v>
+        <v>100.5691698433527</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3964705153578</v>
+        <v>151.3964705153577</v>
       </c>
       <c r="O13" t="n">
         <v>193.1533171838302</v>
       </c>
       <c r="P13" t="n">
-        <v>205.3628309980002</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.5035302409294</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="R13" t="n">
-        <v>101.6442294838587</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="S13" t="n">
-        <v>49.78492872678793</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="T13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="U13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="V13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="W13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="X13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.99427342617327</v>
+        <v>205.3628309980001</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="C14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="F14" t="n">
-        <v>159.6851588911723</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="G14" t="n">
-        <v>107.8258581341015</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="H14" t="n">
-        <v>55.96655737703075</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="I14" t="n">
-        <v>4.107256619960003</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="J14" t="n">
-        <v>4.107256619960003</v>
+        <v>15.59341310677051</v>
       </c>
       <c r="K14" t="n">
-        <v>4.107256619960003</v>
+        <v>66.42071377877555</v>
       </c>
       <c r="L14" t="n">
-        <v>4.107256619960003</v>
+        <v>117.2480144507806</v>
       </c>
       <c r="M14" t="n">
-        <v>33.10576896473384</v>
+        <v>168.0753151227856</v>
       </c>
       <c r="N14" t="n">
-        <v>83.93306963673888</v>
+        <v>185.587670980749</v>
       </c>
       <c r="O14" t="n">
-        <v>134.7603703087439</v>
+        <v>185.587670980749</v>
       </c>
       <c r="P14" t="n">
         <v>185.587670980749</v>
@@ -5300,28 +5300,28 @@
         <v>205.3628309980002</v>
       </c>
       <c r="R14" t="n">
-        <v>205.3628309980002</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="S14" t="n">
-        <v>205.3628309980002</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="T14" t="n">
-        <v>205.3628309980002</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="U14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="V14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="W14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="X14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="Y14" t="n">
-        <v>159.6851588911723</v>
+        <v>107.8258581341015</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49.78492872678793</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="C15" t="n">
-        <v>49.78492872678793</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="D15" t="n">
-        <v>49.78492872678793</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="E15" t="n">
-        <v>49.78492872678793</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="F15" t="n">
-        <v>49.78492872678793</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="G15" t="n">
-        <v>4.107256619960003</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="H15" t="n">
-        <v>4.107256619960003</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="I15" t="n">
-        <v>4.107256619960003</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="J15" t="n">
         <v>17.2549530524518</v>
@@ -5367,13 +5367,13 @@
         <v>17.2549530524518</v>
       </c>
       <c r="N15" t="n">
-        <v>68.08225372445683</v>
+        <v>52.88092898198507</v>
       </c>
       <c r="O15" t="n">
         <v>103.7082296539901</v>
       </c>
       <c r="P15" t="n">
-        <v>154.5355303259951</v>
+        <v>154.5355303259952</v>
       </c>
       <c r="Q15" t="n">
         <v>205.3628309980002</v>
@@ -5382,25 +5382,25 @@
         <v>205.3628309980002</v>
       </c>
       <c r="S15" t="n">
-        <v>205.3628309980002</v>
+        <v>159.6851588911723</v>
       </c>
       <c r="T15" t="n">
-        <v>205.3628309980002</v>
+        <v>159.6851588911723</v>
       </c>
       <c r="U15" t="n">
-        <v>205.3628309980002</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="V15" t="n">
-        <v>153.5035302409294</v>
+        <v>107.8258581341015</v>
       </c>
       <c r="W15" t="n">
-        <v>101.6442294838587</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="X15" t="n">
-        <v>49.78492872678793</v>
+        <v>55.96655737703076</v>
       </c>
       <c r="Y15" t="n">
-        <v>49.78492872678793</v>
+        <v>55.96655737703076</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="C16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="D16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="E16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="F16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5721756973855</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="H16" t="n">
-        <v>115.7128749403148</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="I16" t="n">
-        <v>63.85357418324402</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="J16" t="n">
-        <v>11.99427342617327</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="K16" t="n">
-        <v>4.107256619960003</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="L16" t="n">
         <v>49.7418691713477</v>
       </c>
       <c r="M16" t="n">
-        <v>100.5691698433527</v>
+        <v>100.5691698433528</v>
       </c>
       <c r="N16" t="n">
         <v>151.3964705153578</v>
@@ -5452,34 +5452,34 @@
         <v>193.1533171838302</v>
       </c>
       <c r="P16" t="n">
-        <v>205.3628309980001</v>
+        <v>205.3628309980002</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.3628309980001</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="R16" t="n">
-        <v>205.3628309980001</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3628309980001</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="T16" t="n">
-        <v>205.3628309980001</v>
+        <v>153.5035302409294</v>
       </c>
       <c r="U16" t="n">
-        <v>205.3628309980001</v>
+        <v>101.6442294838587</v>
       </c>
       <c r="V16" t="n">
-        <v>205.3628309980001</v>
+        <v>49.78492872678791</v>
       </c>
       <c r="W16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="X16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.3628309980001</v>
+        <v>4.107256619960004</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="C17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="D17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="E17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="F17" t="n">
-        <v>176.6892090725223</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="G17" t="n">
-        <v>116.9969087101837</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="H17" t="n">
-        <v>57.30460834784506</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="I17" t="n">
         <v>4.727630188697219</v>
@@ -5516,49 +5516,49 @@
         <v>16.21378667550773</v>
       </c>
       <c r="K17" t="n">
-        <v>74.71821026063581</v>
+        <v>16.21378667550773</v>
       </c>
       <c r="L17" t="n">
-        <v>74.71821026063581</v>
+        <v>16.21378667550773</v>
       </c>
       <c r="M17" t="n">
         <v>74.71821026063581</v>
       </c>
       <c r="N17" t="n">
-        <v>99.59750224735359</v>
+        <v>133.2226338457639</v>
       </c>
       <c r="O17" t="n">
-        <v>158.1019258324817</v>
+        <v>191.727057430892</v>
       </c>
       <c r="P17" t="n">
-        <v>216.6063494176097</v>
+        <v>236.381509434861</v>
       </c>
       <c r="Q17" t="n">
         <v>236.381509434861</v>
       </c>
       <c r="R17" t="n">
-        <v>236.381509434861</v>
+        <v>176.6892090725223</v>
       </c>
       <c r="S17" t="n">
-        <v>236.381509434861</v>
+        <v>176.6892090725223</v>
       </c>
       <c r="T17" t="n">
-        <v>236.381509434861</v>
+        <v>116.9969087101837</v>
       </c>
       <c r="U17" t="n">
-        <v>236.381509434861</v>
+        <v>57.30460834784506</v>
       </c>
       <c r="V17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="W17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="X17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="Y17" t="n">
-        <v>236.381509434861</v>
+        <v>4.727630188697219</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.9969087101837</v>
+        <v>64.41993055103585</v>
       </c>
       <c r="C18" t="n">
-        <v>116.9969087101837</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="D18" t="n">
-        <v>57.30460834784506</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="E18" t="n">
-        <v>57.30460834784506</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="F18" t="n">
         <v>4.727630188697219</v>
@@ -5592,52 +5592,52 @@
         <v>4.727630188697219</v>
       </c>
       <c r="J18" t="n">
-        <v>17.87532662118901</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="K18" t="n">
-        <v>76.3797502063171</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="L18" t="n">
-        <v>119.3726622646048</v>
+        <v>4.727630188697219</v>
       </c>
       <c r="M18" t="n">
-        <v>119.3726622646048</v>
+        <v>63.23205377382531</v>
       </c>
       <c r="N18" t="n">
-        <v>119.3726622646048</v>
+        <v>121.7364773589534</v>
       </c>
       <c r="O18" t="n">
         <v>177.8770858497329</v>
       </c>
       <c r="P18" t="n">
-        <v>236.381509434861</v>
+        <v>177.8770858497329</v>
       </c>
       <c r="Q18" t="n">
         <v>236.381509434861</v>
       </c>
       <c r="R18" t="n">
-        <v>236.381509434861</v>
+        <v>176.6892090725223</v>
       </c>
       <c r="S18" t="n">
-        <v>236.381509434861</v>
+        <v>176.6892090725223</v>
       </c>
       <c r="T18" t="n">
-        <v>236.381509434861</v>
+        <v>176.6892090725223</v>
       </c>
       <c r="U18" t="n">
-        <v>236.381509434861</v>
+        <v>124.1122309133745</v>
       </c>
       <c r="V18" t="n">
-        <v>176.6892090725223</v>
+        <v>64.41993055103585</v>
       </c>
       <c r="W18" t="n">
-        <v>176.6892090725223</v>
+        <v>64.41993055103585</v>
       </c>
       <c r="X18" t="n">
-        <v>176.6892090725223</v>
+        <v>64.41993055103585</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.9969087101837</v>
+        <v>64.41993055103585</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="C19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="D19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="E19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="F19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="G19" t="n">
-        <v>4.727630188697219</v>
+        <v>161.6451500306449</v>
       </c>
       <c r="H19" t="n">
-        <v>4.727630188697219</v>
+        <v>124.1122309133745</v>
       </c>
       <c r="I19" t="n">
-        <v>4.727630188697219</v>
+        <v>64.41993055103585</v>
       </c>
       <c r="J19" t="n">
         <v>4.727630188697219</v>
@@ -5692,31 +5692,31 @@
         <v>221.3374503929835</v>
       </c>
       <c r="Q19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="R19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="S19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="T19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="U19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="V19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="W19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="X19" t="n">
+        <v>221.3374503929835</v>
+      </c>
+      <c r="Y19" t="n">
         <v>161.6451500306449</v>
-      </c>
-      <c r="R19" t="n">
-        <v>101.9528496683062</v>
-      </c>
-      <c r="S19" t="n">
-        <v>101.9528496683062</v>
-      </c>
-      <c r="T19" t="n">
-        <v>101.9528496683062</v>
-      </c>
-      <c r="U19" t="n">
-        <v>42.2605493059676</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4.727630188697219</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.727630188697219</v>
-      </c>
-      <c r="X19" t="n">
-        <v>4.727630188697219</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>4.727630188697219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="C20" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="D20" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="E20" t="n">
-        <v>943.7852722828175</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="F20" t="n">
-        <v>624.9388965115952</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G20" t="n">
-        <v>306.092520740373</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H20" t="n">
         <v>25.2526329610808</v>
@@ -5750,16 +5750,16 @@
         <v>25.2526329610808</v>
       </c>
       <c r="J20" t="n">
-        <v>36.73878944789132</v>
+        <v>36.73878944789135</v>
       </c>
       <c r="K20" t="n">
         <v>174.6983647903929</v>
       </c>
       <c r="L20" t="n">
-        <v>398.1260447651257</v>
+        <v>398.126044765126</v>
       </c>
       <c r="M20" t="n">
-        <v>663.3389341150579</v>
+        <v>663.3389341150581</v>
       </c>
       <c r="N20" t="n">
         <v>918.2112477403981</v>
@@ -5786,16 +5786,16 @@
         <v>1262.63164805404</v>
       </c>
       <c r="V20" t="n">
-        <v>1262.63164805404</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="W20" t="n">
-        <v>1262.63164805404</v>
+        <v>662.9453845035252</v>
       </c>
       <c r="X20" t="n">
-        <v>1262.63164805404</v>
+        <v>662.9453845035252</v>
       </c>
       <c r="Y20" t="n">
-        <v>1262.63164805404</v>
+        <v>344.099008732303</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>800.9758996436676</v>
+        <v>528.0816200254469</v>
       </c>
       <c r="C21" t="n">
-        <v>626.5228703625406</v>
+        <v>528.0816200254469</v>
       </c>
       <c r="D21" t="n">
-        <v>477.5884607012894</v>
+        <v>528.0816200254469</v>
       </c>
       <c r="E21" t="n">
-        <v>318.3510056958339</v>
+        <v>368.8441650199915</v>
       </c>
       <c r="F21" t="n">
-        <v>171.8164477227188</v>
+        <v>222.3096070468764</v>
       </c>
       <c r="G21" t="n">
-        <v>33.23559129340427</v>
+        <v>222.3096070468764</v>
       </c>
       <c r="H21" t="n">
-        <v>25.2526329610808</v>
+        <v>110.3888561550258</v>
       </c>
       <c r="I21" t="n">
         <v>25.2526329610808</v>
@@ -5835,46 +5835,46 @@
         <v>38.40032939357259</v>
       </c>
       <c r="L21" t="n">
-        <v>300.2777900022234</v>
+        <v>55.03608657352197</v>
       </c>
       <c r="M21" t="n">
-        <v>612.7791228955982</v>
+        <v>367.5374194668968</v>
       </c>
       <c r="N21" t="n">
-        <v>925.2804557889731</v>
+        <v>680.0387523602716</v>
       </c>
       <c r="O21" t="n">
-        <v>1051.9205575393</v>
+        <v>963.7635431051194</v>
       </c>
       <c r="P21" t="n">
-        <v>1262.63164805404</v>
+        <v>1174.474633619859</v>
       </c>
       <c r="Q21" t="n">
         <v>1262.63164805404</v>
       </c>
       <c r="R21" t="n">
-        <v>1170.773351041653</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="S21" t="n">
-        <v>1170.773351041653</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="T21" t="n">
-        <v>969.1912366637356</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="U21" t="n">
-        <v>969.1912366637356</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="V21" t="n">
-        <v>969.1912366637356</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="W21" t="n">
-        <v>969.1912366637356</v>
+        <v>1111.908756016002</v>
       </c>
       <c r="X21" t="n">
-        <v>969.1912366637356</v>
+        <v>904.0572558104689</v>
       </c>
       <c r="Y21" t="n">
-        <v>969.1912366637356</v>
+        <v>696.296957045515</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5935,7 @@
         <v>245.9059651581821</v>
       </c>
       <c r="S22" t="n">
-        <v>245.9059651581821</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="T22" t="n">
         <v>25.2526329610808</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>699.9889225240165</v>
+        <v>1183.587744260438</v>
       </c>
       <c r="C23" t="n">
-        <v>381.1425467527943</v>
+        <v>1183.587744260438</v>
       </c>
       <c r="D23" t="n">
-        <v>381.1425467527943</v>
+        <v>864.7413684892156</v>
       </c>
       <c r="E23" t="n">
-        <v>381.1425467527943</v>
+        <v>545.8949927179933</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1425467527943</v>
+        <v>545.8949927179933</v>
       </c>
       <c r="G23" t="n">
-        <v>62.29617098157212</v>
+        <v>227.0486169467711</v>
       </c>
       <c r="H23" t="n">
-        <v>62.29617098157212</v>
+        <v>227.0486169467711</v>
       </c>
       <c r="I23" t="n">
         <v>25.2526329610808</v>
@@ -5993,10 +5993,10 @@
         <v>174.6983647903929</v>
       </c>
       <c r="L23" t="n">
-        <v>398.1260447651257</v>
+        <v>398.126044765126</v>
       </c>
       <c r="M23" t="n">
-        <v>663.3389341150579</v>
+        <v>663.3389341150581</v>
       </c>
       <c r="N23" t="n">
         <v>918.2112477403981</v>
@@ -6011,28 +6011,28 @@
         <v>1262.63164805404</v>
       </c>
       <c r="R23" t="n">
-        <v>1128.855539770638</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="S23" t="n">
-        <v>924.1112909963701</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="T23" t="n">
-        <v>699.9889225240165</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="U23" t="n">
-        <v>699.9889225240165</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="V23" t="n">
-        <v>699.9889225240165</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="W23" t="n">
-        <v>699.9889225240165</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="X23" t="n">
-        <v>699.9889225240165</v>
+        <v>1183.587744260438</v>
       </c>
       <c r="Y23" t="n">
-        <v>699.9889225240165</v>
+        <v>1183.587744260438</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>25.2526329610808</v>
+        <v>682.6574985393643</v>
       </c>
       <c r="C24" t="n">
-        <v>25.2526329610808</v>
+        <v>508.2044692582373</v>
       </c>
       <c r="D24" t="n">
-        <v>25.2526329610808</v>
+        <v>359.270059596986</v>
       </c>
       <c r="E24" t="n">
-        <v>25.2526329610808</v>
+        <v>359.270059596986</v>
       </c>
       <c r="F24" t="n">
-        <v>25.2526329610808</v>
+        <v>359.270059596986</v>
       </c>
       <c r="G24" t="n">
-        <v>25.2526329610808</v>
+        <v>220.6892031676715</v>
       </c>
       <c r="H24" t="n">
-        <v>25.2526329610808</v>
+        <v>108.7684522758208</v>
       </c>
       <c r="I24" t="n">
         <v>25.2526329610808</v>
@@ -6069,22 +6069,22 @@
         <v>38.40032939357259</v>
       </c>
       <c r="K24" t="n">
-        <v>187.492679845788</v>
+        <v>38.40032939357259</v>
       </c>
       <c r="L24" t="n">
-        <v>449.3701404544388</v>
+        <v>265.7471770882617</v>
       </c>
       <c r="M24" t="n">
-        <v>761.8714733478137</v>
+        <v>578.2485099816365</v>
       </c>
       <c r="N24" t="n">
-        <v>1074.372806241189</v>
+        <v>890.7498428750113</v>
       </c>
       <c r="O24" t="n">
-        <v>1262.63164805404</v>
+        <v>1174.474633619859</v>
       </c>
       <c r="P24" t="n">
-        <v>1262.63164805404</v>
+        <v>1174.474633619859</v>
       </c>
       <c r="Q24" t="n">
         <v>1262.63164805404</v>
@@ -6102,16 +6102,16 @@
         <v>890.4177973043182</v>
       </c>
       <c r="V24" t="n">
-        <v>655.2656890725755</v>
+        <v>890.4177973043182</v>
       </c>
       <c r="W24" t="n">
-        <v>401.0283323443738</v>
+        <v>890.4177973043182</v>
       </c>
       <c r="X24" t="n">
-        <v>233.0129317260347</v>
+        <v>890.4177973043182</v>
       </c>
       <c r="Y24" t="n">
-        <v>25.2526329610808</v>
+        <v>682.6574985393643</v>
       </c>
     </row>
     <row r="25">
@@ -6169,13 +6169,13 @@
         <v>245.9059651581821</v>
       </c>
       <c r="R25" t="n">
-        <v>245.9059651581821</v>
+        <v>72.47496276320692</v>
       </c>
       <c r="S25" t="n">
-        <v>25.2526329610808</v>
+        <v>72.47496276320692</v>
       </c>
       <c r="T25" t="n">
-        <v>25.2526329610808</v>
+        <v>72.47496276320692</v>
       </c>
       <c r="U25" t="n">
         <v>25.2526329610808</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1038.509279581686</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="C26" t="n">
-        <v>719.6629038104641</v>
+        <v>662.9453845035252</v>
       </c>
       <c r="D26" t="n">
-        <v>719.6629038104641</v>
+        <v>344.099008732303</v>
       </c>
       <c r="E26" t="n">
-        <v>719.6629038104641</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="F26" t="n">
-        <v>719.6629038104641</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G26" t="n">
-        <v>545.8949927179933</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H26" t="n">
-        <v>227.0486169467711</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="I26" t="n">
         <v>25.2526329610808</v>
@@ -6227,16 +6227,16 @@
         <v>36.73878944789135</v>
       </c>
       <c r="K26" t="n">
-        <v>174.6983647903928</v>
+        <v>174.698364790393</v>
       </c>
       <c r="L26" t="n">
-        <v>398.1260447651259</v>
+        <v>398.1260447651261</v>
       </c>
       <c r="M26" t="n">
-        <v>663.3389341150581</v>
+        <v>663.3389341150582</v>
       </c>
       <c r="N26" t="n">
-        <v>918.2112477403983</v>
+        <v>918.2112477403984</v>
       </c>
       <c r="O26" t="n">
         <v>1113.692308338241</v>
@@ -6254,22 +6254,22 @@
         <v>1262.63164805404</v>
       </c>
       <c r="T26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="U26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="V26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="W26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="X26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="Y26" t="n">
-        <v>1038.509279581686</v>
+        <v>1262.63164805404</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>499.5559907215604</v>
+        <v>174.1870426223321</v>
       </c>
       <c r="C27" t="n">
-        <v>499.5559907215604</v>
+        <v>174.1870426223321</v>
       </c>
       <c r="D27" t="n">
-        <v>499.5559907215604</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="E27" t="n">
-        <v>340.3185357161049</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="F27" t="n">
-        <v>340.3185357161049</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G27" t="n">
-        <v>222.3096070468765</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H27" t="n">
-        <v>110.3888561550258</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="I27" t="n">
         <v>25.2526329610808</v>
@@ -6306,19 +6306,19 @@
         <v>38.40032939357259</v>
       </c>
       <c r="K27" t="n">
-        <v>38.40032939357259</v>
+        <v>187.492679845788</v>
       </c>
       <c r="L27" t="n">
-        <v>300.2777900022234</v>
+        <v>449.3701404544388</v>
       </c>
       <c r="M27" t="n">
-        <v>612.7791228955982</v>
+        <v>761.8714733478137</v>
       </c>
       <c r="N27" t="n">
-        <v>768.1957667944524</v>
+        <v>1074.372806241189</v>
       </c>
       <c r="O27" t="n">
-        <v>1051.9205575393</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="P27" t="n">
         <v>1262.63164805404</v>
@@ -6327,28 +6327,28 @@
         <v>1262.63164805404</v>
       </c>
       <c r="R27" t="n">
-        <v>1170.773351041653</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="S27" t="n">
-        <v>1170.773351041653</v>
+        <v>1091.999911682235</v>
       </c>
       <c r="T27" t="n">
-        <v>1170.773351041653</v>
+        <v>1091.999911682235</v>
       </c>
       <c r="U27" t="n">
-        <v>942.559599158836</v>
+        <v>863.7861597994184</v>
       </c>
       <c r="V27" t="n">
-        <v>707.4074909270932</v>
+        <v>628.6340515676757</v>
       </c>
       <c r="W27" t="n">
-        <v>707.4074909270932</v>
+        <v>374.396694839474</v>
       </c>
       <c r="X27" t="n">
-        <v>499.5559907215604</v>
+        <v>174.1870426223321</v>
       </c>
       <c r="Y27" t="n">
-        <v>499.5559907215604</v>
+        <v>174.1870426223321</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="C28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="D28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="E28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="F28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="I28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="J28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="K28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="L28" t="n">
-        <v>1087.612928408326</v>
+        <v>70.8872455124685</v>
       </c>
       <c r="M28" t="n">
-        <v>1146.117351993454</v>
+        <v>129.3916690975966</v>
       </c>
       <c r="N28" t="n">
-        <v>1208.665287571398</v>
+        <v>191.9396046755397</v>
       </c>
       <c r="O28" t="n">
-        <v>1250.42213423987</v>
+        <v>233.6964513440121</v>
       </c>
       <c r="P28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="Q28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="R28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="S28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="T28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="U28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="V28" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="W28" t="n">
-        <v>1041.978315856939</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="X28" t="n">
-        <v>1041.978315856939</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="Y28" t="n">
-        <v>1041.978315856939</v>
+        <v>25.2526329610808</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>670.2492164018968</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="C29" t="n">
-        <v>351.4028406306746</v>
+        <v>662.9453845035252</v>
       </c>
       <c r="D29" t="n">
+        <v>662.9453845035252</v>
+      </c>
+      <c r="E29" t="n">
         <v>344.099008732303</v>
-      </c>
-      <c r="E29" t="n">
-        <v>25.2526329610808</v>
       </c>
       <c r="F29" t="n">
         <v>25.2526329610808</v>
@@ -6461,7 +6461,7 @@
         <v>25.2526329610808</v>
       </c>
       <c r="J29" t="n">
-        <v>36.73878944789124</v>
+        <v>36.7387894478913</v>
       </c>
       <c r="K29" t="n">
         <v>174.6983647903928</v>
@@ -6473,7 +6473,7 @@
         <v>663.338934115058</v>
       </c>
       <c r="N29" t="n">
-        <v>918.2112477403981</v>
+        <v>918.2112477403982</v>
       </c>
       <c r="O29" t="n">
         <v>1113.692308338241</v>
@@ -6485,28 +6485,28 @@
         <v>1262.63164805404</v>
       </c>
       <c r="R29" t="n">
-        <v>1128.855539770638</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="S29" t="n">
-        <v>924.1112909963701</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="T29" t="n">
-        <v>924.1112909963701</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="U29" t="n">
-        <v>670.2492164018968</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="V29" t="n">
-        <v>670.2492164018968</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="W29" t="n">
-        <v>670.2492164018968</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="X29" t="n">
-        <v>670.2492164018968</v>
+        <v>981.7917602747475</v>
       </c>
       <c r="Y29" t="n">
-        <v>670.2492164018968</v>
+        <v>981.7917602747475</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.3680473635104</v>
+        <v>800.6339925608843</v>
       </c>
       <c r="C30" t="n">
-        <v>310.3680473635104</v>
+        <v>626.1809632797573</v>
       </c>
       <c r="D30" t="n">
-        <v>310.3680473635104</v>
+        <v>477.246553618506</v>
       </c>
       <c r="E30" t="n">
-        <v>310.3680473635104</v>
+        <v>318.0090986130505</v>
       </c>
       <c r="F30" t="n">
-        <v>163.8334893903954</v>
+        <v>171.4745406399355</v>
       </c>
       <c r="G30" t="n">
-        <v>25.2526329610808</v>
+        <v>32.89368421062093</v>
       </c>
       <c r="H30" t="n">
         <v>25.2526329610808</v>
@@ -6540,22 +6540,22 @@
         <v>25.2526329610808</v>
       </c>
       <c r="J30" t="n">
-        <v>25.2526329610808</v>
+        <v>38.40032939357259</v>
       </c>
       <c r="K30" t="n">
-        <v>25.2526329610808</v>
+        <v>38.40032939357259</v>
       </c>
       <c r="L30" t="n">
-        <v>287.1300935697316</v>
+        <v>300.2777900022234</v>
       </c>
       <c r="M30" t="n">
-        <v>599.6314264631064</v>
+        <v>612.7791228955982</v>
       </c>
       <c r="N30" t="n">
-        <v>680.0387523602716</v>
+        <v>890.7498428750113</v>
       </c>
       <c r="O30" t="n">
-        <v>963.7635431051194</v>
+        <v>1174.474633619859</v>
       </c>
       <c r="P30" t="n">
         <v>1174.474633619859</v>
@@ -6564,28 +6564,28 @@
         <v>1262.63164805404</v>
       </c>
       <c r="R30" t="n">
-        <v>1229.553378584189</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="S30" t="n">
-        <v>1229.553378584189</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="T30" t="n">
-        <v>1027.971264206272</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="U30" t="n">
-        <v>799.7575123234546</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="V30" t="n">
-        <v>564.605404091712</v>
+        <v>1262.63164805404</v>
       </c>
       <c r="W30" t="n">
-        <v>310.3680473635104</v>
+        <v>1008.394291325838</v>
       </c>
       <c r="X30" t="n">
-        <v>310.3680473635104</v>
+        <v>1008.394291325838</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.3680473635104</v>
+        <v>800.6339925608843</v>
       </c>
     </row>
     <row r="31">
@@ -6646,7 +6646,7 @@
         <v>245.9059651581821</v>
       </c>
       <c r="S31" t="n">
-        <v>25.2526329610808</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="T31" t="n">
         <v>25.2526329610808</v>
@@ -6686,10 +6686,10 @@
         <v>306.092520740373</v>
       </c>
       <c r="F32" t="n">
-        <v>306.092520740373</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G32" t="n">
-        <v>306.092520740373</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H32" t="n">
         <v>25.2526329610808</v>
@@ -6698,16 +6698,16 @@
         <v>25.2526329610808</v>
       </c>
       <c r="J32" t="n">
-        <v>36.73878944789118</v>
+        <v>36.73878944789124</v>
       </c>
       <c r="K32" t="n">
-        <v>174.6983647903927</v>
+        <v>174.6983647903928</v>
       </c>
       <c r="L32" t="n">
-        <v>398.1260447651258</v>
+        <v>398.1260447651259</v>
       </c>
       <c r="M32" t="n">
-        <v>663.3389341150579</v>
+        <v>663.338934115058</v>
       </c>
       <c r="N32" t="n">
         <v>918.2112477403981</v>
@@ -6743,7 +6743,7 @@
         <v>624.9388965115952</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.092520740373</v>
+        <v>624.9388965115952</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25.2526329610808</v>
+        <v>767.4059057898419</v>
       </c>
       <c r="C33" t="n">
-        <v>25.2526329610808</v>
+        <v>767.4059057898419</v>
       </c>
       <c r="D33" t="n">
-        <v>25.2526329610808</v>
+        <v>666.6624764547616</v>
       </c>
       <c r="E33" t="n">
-        <v>25.2526329610808</v>
+        <v>507.4250214493061</v>
       </c>
       <c r="F33" t="n">
-        <v>25.2526329610808</v>
+        <v>360.890463476191</v>
       </c>
       <c r="G33" t="n">
-        <v>25.2526329610808</v>
+        <v>222.3096070468764</v>
       </c>
       <c r="H33" t="n">
-        <v>25.2526329610808</v>
+        <v>110.3888561550258</v>
       </c>
       <c r="I33" t="n">
         <v>25.2526329610808</v>
@@ -6780,49 +6780,49 @@
         <v>25.2526329610808</v>
       </c>
       <c r="K33" t="n">
-        <v>174.3449834132962</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="L33" t="n">
-        <v>436.222444021947</v>
+        <v>55.03608657352197</v>
       </c>
       <c r="M33" t="n">
-        <v>748.7237769153219</v>
+        <v>367.5374194668968</v>
       </c>
       <c r="N33" t="n">
-        <v>768.1957667944522</v>
+        <v>680.0387523602716</v>
       </c>
       <c r="O33" t="n">
-        <v>1051.9205575393</v>
+        <v>963.7635431051194</v>
       </c>
       <c r="P33" t="n">
-        <v>1262.63164805404</v>
+        <v>1174.474633619859</v>
       </c>
       <c r="Q33" t="n">
         <v>1262.63164805404</v>
       </c>
       <c r="R33" t="n">
-        <v>1262.63164805404</v>
+        <v>1170.773351041653</v>
       </c>
       <c r="S33" t="n">
-        <v>1262.63164805404</v>
+        <v>1170.773351041653</v>
       </c>
       <c r="T33" t="n">
-        <v>1262.63164805404</v>
+        <v>1170.773351041653</v>
       </c>
       <c r="U33" t="n">
-        <v>1098.46923391158</v>
+        <v>1170.773351041653</v>
       </c>
       <c r="V33" t="n">
-        <v>863.3171256798371</v>
+        <v>935.62124280991</v>
       </c>
       <c r="W33" t="n">
-        <v>609.0797689516355</v>
+        <v>935.62124280991</v>
       </c>
       <c r="X33" t="n">
-        <v>401.2282687461027</v>
+        <v>935.62124280991</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.4679699811488</v>
+        <v>935.62124280991</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1210.914498784845</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="C34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="D34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="E34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="F34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="G34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="H34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="I34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="J34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="K34" t="n">
-        <v>1041.978315856938</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="L34" t="n">
-        <v>1087.612928408326</v>
+        <v>70.8872455124685</v>
       </c>
       <c r="M34" t="n">
-        <v>1146.117351993454</v>
+        <v>129.3916690975966</v>
       </c>
       <c r="N34" t="n">
-        <v>1208.665287571397</v>
+        <v>191.9396046755397</v>
       </c>
       <c r="O34" t="n">
-        <v>1250.42213423987</v>
+        <v>233.6964513440121</v>
       </c>
       <c r="P34" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="Q34" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="R34" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="S34" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="T34" t="n">
-        <v>1262.63164805404</v>
+        <v>245.9059651581821</v>
       </c>
       <c r="U34" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="V34" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="X34" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
       <c r="Y34" t="n">
-        <v>1262.63164805404</v>
+        <v>25.2526329610808</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="C35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="D35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="E35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="F35" t="n">
-        <v>613.0641531585643</v>
+        <v>613.0641531585645</v>
       </c>
       <c r="G35" t="n">
-        <v>318.2083657602552</v>
+        <v>318.2083657602553</v>
       </c>
       <c r="H35" t="n">
         <v>23.35257836194608</v>
@@ -6935,25 +6935,25 @@
         <v>23.35257836194608</v>
       </c>
       <c r="J35" t="n">
-        <v>23.35257836194608</v>
+        <v>34.83873484875659</v>
       </c>
       <c r="K35" t="n">
-        <v>161.3121537044476</v>
+        <v>172.7983101912581</v>
       </c>
       <c r="L35" t="n">
-        <v>322.8984748256412</v>
+        <v>396.2259901659912</v>
       </c>
       <c r="M35" t="n">
-        <v>588.1113641755734</v>
+        <v>661.4388795159233</v>
       </c>
       <c r="N35" t="n">
-        <v>842.9836778009136</v>
+        <v>916.3111931412635</v>
       </c>
       <c r="O35" t="n">
-        <v>1038.464738398756</v>
+        <v>1111.792253739106</v>
       </c>
       <c r="P35" t="n">
-        <v>1167.628918097304</v>
+        <v>1147.853758080053</v>
       </c>
       <c r="Q35" t="n">
         <v>1167.628918097304</v>
@@ -6965,22 +6965,22 @@
         <v>1167.628918097304</v>
       </c>
       <c r="T35" t="n">
-        <v>943.5065496249504</v>
+        <v>1161.782015151347</v>
       </c>
       <c r="U35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="V35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="W35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="X35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
       <c r="Y35" t="n">
-        <v>907.9199405568734</v>
+        <v>907.9199405568737</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.1498607980051</v>
+        <v>556.5011740805396</v>
       </c>
       <c r="C36" t="n">
-        <v>813.6968315168781</v>
+        <v>556.5011740805396</v>
       </c>
       <c r="D36" t="n">
-        <v>664.7624218556268</v>
+        <v>556.5011740805396</v>
       </c>
       <c r="E36" t="n">
-        <v>505.5249668501713</v>
+        <v>505.5249668501714</v>
       </c>
       <c r="F36" t="n">
         <v>358.9904088770563</v>
@@ -7014,22 +7014,22 @@
         <v>23.35257836194608</v>
       </c>
       <c r="J36" t="n">
-        <v>36.50027479443787</v>
+        <v>36.50027479443788</v>
       </c>
       <c r="K36" t="n">
-        <v>185.5926252466533</v>
+        <v>36.50027479443788</v>
       </c>
       <c r="L36" t="n">
-        <v>447.4700858553041</v>
+        <v>36.50027479443788</v>
       </c>
       <c r="M36" t="n">
-        <v>736.4582430843868</v>
+        <v>296.0478651744533</v>
       </c>
       <c r="N36" t="n">
-        <v>1025.446400313469</v>
+        <v>585.0360224035361</v>
       </c>
       <c r="O36" t="n">
-        <v>1025.446400313469</v>
+        <v>868.7608131483839</v>
       </c>
       <c r="P36" t="n">
         <v>1079.471903663124</v>
@@ -7050,16 +7050,16 @@
         <v>1167.628918097304</v>
       </c>
       <c r="V36" t="n">
-        <v>1167.628918097304</v>
+        <v>932.4768098655616</v>
       </c>
       <c r="W36" t="n">
-        <v>1167.628918097304</v>
+        <v>932.4768098655616</v>
       </c>
       <c r="X36" t="n">
-        <v>1167.628918097304</v>
+        <v>932.4768098655616</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.365197818073</v>
+        <v>724.7165111006077</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="C37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="D37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="E37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="F37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="G37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="H37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="I37" t="n">
-        <v>1014.389249131484</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="J37" t="n">
-        <v>946.9755859002026</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="K37" t="n">
-        <v>946.9755859002026</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="L37" t="n">
-        <v>992.6101984515903</v>
+        <v>992.6101984515906</v>
       </c>
       <c r="M37" t="n">
-        <v>1051.114622036718</v>
+        <v>1051.114622036719</v>
       </c>
       <c r="N37" t="n">
         <v>1113.662557614662</v>
@@ -7129,16 +7129,16 @@
         <v>1167.628918097304</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="W37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="X37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.628918097304</v>
+        <v>946.9755859002029</v>
       </c>
     </row>
     <row r="38">
@@ -7172,25 +7172,25 @@
         <v>23.35257836194608</v>
       </c>
       <c r="J38" t="n">
-        <v>23.35257836194608</v>
+        <v>34.83873484875659</v>
       </c>
       <c r="K38" t="n">
-        <v>161.3121537044476</v>
+        <v>172.7983101912581</v>
       </c>
       <c r="L38" t="n">
-        <v>384.7398336791807</v>
+        <v>396.2259901659912</v>
       </c>
       <c r="M38" t="n">
-        <v>649.9527230291128</v>
+        <v>588.1113641755736</v>
       </c>
       <c r="N38" t="n">
-        <v>823.2085177836624</v>
+        <v>842.9836778009138</v>
       </c>
       <c r="O38" t="n">
-        <v>1018.689578381505</v>
+        <v>1038.464738398757</v>
       </c>
       <c r="P38" t="n">
-        <v>1147.853758080053</v>
+        <v>1167.628918097304</v>
       </c>
       <c r="Q38" t="n">
         <v>1167.628918097304</v>
@@ -7199,22 +7199,22 @@
         <v>1167.628918097304</v>
       </c>
       <c r="S38" t="n">
-        <v>962.8846693230357</v>
+        <v>962.884669323036</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7623008506821</v>
+        <v>738.7623008506823</v>
       </c>
       <c r="U38" t="n">
-        <v>738.7623008506821</v>
+        <v>484.900226256209</v>
       </c>
       <c r="V38" t="n">
-        <v>443.906513452373</v>
+        <v>190.0444388578998</v>
       </c>
       <c r="W38" t="n">
-        <v>318.2083657602552</v>
+        <v>190.0444388578998</v>
       </c>
       <c r="X38" t="n">
-        <v>318.2083657602552</v>
+        <v>23.35257836194608</v>
       </c>
       <c r="Y38" t="n">
         <v>23.35257836194608</v>
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>462.2264777164159</v>
+        <v>764.4327811747455</v>
       </c>
       <c r="C39" t="n">
-        <v>462.2264777164159</v>
+        <v>589.9797518936185</v>
       </c>
       <c r="D39" t="n">
-        <v>462.2264777164159</v>
+        <v>441.0453422323673</v>
       </c>
       <c r="E39" t="n">
-        <v>302.9890227109604</v>
+        <v>281.8078872269118</v>
       </c>
       <c r="F39" t="n">
-        <v>156.4544647378454</v>
+        <v>135.2733292537967</v>
       </c>
       <c r="G39" t="n">
-        <v>156.4544647378454</v>
+        <v>135.2733292537967</v>
       </c>
       <c r="H39" t="n">
-        <v>108.4888015558911</v>
+        <v>23.35257836194608</v>
       </c>
       <c r="I39" t="n">
         <v>23.35257836194608</v>
       </c>
       <c r="J39" t="n">
-        <v>36.50027479443787</v>
+        <v>23.35257836194608</v>
       </c>
       <c r="K39" t="n">
-        <v>36.50027479443787</v>
+        <v>172.4449288141615</v>
       </c>
       <c r="L39" t="n">
-        <v>36.50027479443787</v>
+        <v>172.4449288141615</v>
       </c>
       <c r="M39" t="n">
-        <v>325.4884320235206</v>
+        <v>296.0478651744533</v>
       </c>
       <c r="N39" t="n">
         <v>585.0360224035361</v>
@@ -7275,28 +7275,28 @@
         <v>1167.628918097304</v>
       </c>
       <c r="R39" t="n">
-        <v>1075.770621084917</v>
+        <v>1167.628918097304</v>
       </c>
       <c r="S39" t="n">
-        <v>905.1388847131126</v>
+        <v>996.9971817254999</v>
       </c>
       <c r="T39" t="n">
-        <v>905.1388847131126</v>
+        <v>996.9971817254999</v>
       </c>
       <c r="U39" t="n">
-        <v>905.1388847131126</v>
+        <v>996.9971817254999</v>
       </c>
       <c r="V39" t="n">
-        <v>669.9867764813698</v>
+        <v>764.4327811747455</v>
       </c>
       <c r="W39" t="n">
-        <v>669.9867764813698</v>
+        <v>764.4327811747455</v>
       </c>
       <c r="X39" t="n">
-        <v>669.9867764813698</v>
+        <v>764.4327811747455</v>
       </c>
       <c r="Y39" t="n">
-        <v>462.2264777164159</v>
+        <v>764.4327811747455</v>
       </c>
     </row>
     <row r="40">
@@ -7360,13 +7360,13 @@
         <v>244.0059105590474</v>
       </c>
       <c r="T40" t="n">
-        <v>23.35257836194608</v>
+        <v>244.0059105590474</v>
       </c>
       <c r="U40" t="n">
-        <v>23.35257836194608</v>
+        <v>244.0059105590474</v>
       </c>
       <c r="V40" t="n">
-        <v>23.35257836194608</v>
+        <v>244.0059105590474</v>
       </c>
       <c r="W40" t="n">
         <v>23.35257836194608</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>849.587451867402</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="C41" t="n">
-        <v>849.587451867402</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="D41" t="n">
-        <v>596.7777803792912</v>
+        <v>883.8005681723328</v>
       </c>
       <c r="E41" t="n">
-        <v>309.7549925862501</v>
+        <v>596.7777803792915</v>
       </c>
       <c r="F41" t="n">
-        <v>22.73220479320887</v>
+        <v>309.7549925862502</v>
       </c>
       <c r="G41" t="n">
         <v>22.73220479320887</v>
@@ -7409,52 +7409,52 @@
         <v>22.73220479320887</v>
       </c>
       <c r="J41" t="n">
-        <v>34.21836128001937</v>
+        <v>34.21836128001938</v>
       </c>
       <c r="K41" t="n">
-        <v>48.67695639679633</v>
+        <v>172.1779366225209</v>
       </c>
       <c r="L41" t="n">
-        <v>272.1046363715294</v>
+        <v>395.605616597254</v>
       </c>
       <c r="M41" t="n">
-        <v>537.3175257214615</v>
+        <v>537.3175257214617</v>
       </c>
       <c r="N41" t="n">
-        <v>792.1898393468017</v>
+        <v>792.1898393468019</v>
       </c>
       <c r="O41" t="n">
-        <v>987.6708999446446</v>
+        <v>987.6708999446448</v>
       </c>
       <c r="P41" t="n">
         <v>1116.835079643192</v>
       </c>
       <c r="Q41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="R41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="S41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="T41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="U41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="V41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="W41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="X41" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="Y41" t="n">
-        <v>849.587451867402</v>
+        <v>1136.610239660444</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>506.3972471472198</v>
+        <v>506.3972471472201</v>
       </c>
       <c r="C42" t="n">
-        <v>506.3972471472198</v>
+        <v>506.3972471472201</v>
       </c>
       <c r="D42" t="n">
-        <v>506.3972471472198</v>
+        <v>506.3972471472201</v>
       </c>
       <c r="E42" t="n">
-        <v>504.9045932814341</v>
+        <v>347.1597921417646</v>
       </c>
       <c r="F42" t="n">
-        <v>358.3700353083191</v>
+        <v>200.6252341686495</v>
       </c>
       <c r="G42" t="n">
-        <v>219.7891788790045</v>
+        <v>200.6252341686495</v>
       </c>
       <c r="H42" t="n">
-        <v>107.8684279871539</v>
+        <v>88.70448327679888</v>
       </c>
       <c r="I42" t="n">
         <v>22.73220479320887</v>
@@ -7491,49 +7491,49 @@
         <v>35.87990122570066</v>
       </c>
       <c r="K42" t="n">
-        <v>184.9722516779161</v>
+        <v>35.87990122570066</v>
       </c>
       <c r="L42" t="n">
-        <v>446.8497122865669</v>
+        <v>35.87990122570066</v>
       </c>
       <c r="M42" t="n">
-        <v>644.588114829744</v>
+        <v>275.1200660796037</v>
       </c>
       <c r="N42" t="n">
-        <v>644.588114829744</v>
+        <v>556.4311003955635</v>
       </c>
       <c r="O42" t="n">
-        <v>925.8991491457036</v>
+        <v>837.7421347115232</v>
       </c>
       <c r="P42" t="n">
-        <v>1136.610239660443</v>
+        <v>1048.453225226263</v>
       </c>
       <c r="Q42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="R42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="S42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="T42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="U42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="V42" t="n">
-        <v>1136.610239660443</v>
+        <v>1136.610239660444</v>
       </c>
       <c r="W42" t="n">
-        <v>882.3728829322417</v>
+        <v>882.372882932242</v>
       </c>
       <c r="X42" t="n">
-        <v>882.3728829322417</v>
+        <v>882.372882932242</v>
       </c>
       <c r="Y42" t="n">
-        <v>674.6125841672879</v>
+        <v>674.6125841672881</v>
       </c>
     </row>
     <row r="43">
@@ -7588,16 +7588,16 @@
         <v>243.3855369903102</v>
       </c>
       <c r="Q43" t="n">
-        <v>166.8812561354029</v>
+        <v>243.3855369903102</v>
       </c>
       <c r="R43" t="n">
-        <v>166.8812561354029</v>
+        <v>243.3855369903102</v>
       </c>
       <c r="S43" t="n">
-        <v>166.8812561354029</v>
+        <v>243.3855369903102</v>
       </c>
       <c r="T43" t="n">
-        <v>166.8812561354029</v>
+        <v>243.3855369903102</v>
       </c>
       <c r="U43" t="n">
         <v>22.73220479320887</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.75396388879138</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="C44" t="n">
-        <v>26.75396388879138</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="D44" t="n">
-        <v>2.207202020825289</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="E44" t="n">
-        <v>2.207202020825289</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="F44" t="n">
-        <v>2.207202020825289</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="G44" t="n">
-        <v>2.207202020825289</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="H44" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="I44" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="J44" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="K44" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="L44" t="n">
-        <v>29.52132702853824</v>
+        <v>29.5213270285383</v>
       </c>
       <c r="M44" t="n">
-        <v>56.83545203625118</v>
+        <v>56.8354520362513</v>
       </c>
       <c r="N44" t="n">
-        <v>84.14957704396413</v>
+        <v>63.27081601630047</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3601010412644</v>
+        <v>90.58494102401347</v>
       </c>
       <c r="P44" t="n">
-        <v>110.3601010412644</v>
+        <v>90.58494102401347</v>
       </c>
       <c r="Q44" t="n">
-        <v>110.3601010412644</v>
+        <v>110.3601010412647</v>
       </c>
       <c r="R44" t="n">
-        <v>82.49138865710675</v>
+        <v>82.49138865710692</v>
       </c>
       <c r="S44" t="n">
-        <v>82.49138865710675</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="T44" t="n">
-        <v>82.49138865710675</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="U44" t="n">
-        <v>54.62267627294906</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="V44" t="n">
-        <v>26.75396388879138</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="W44" t="n">
-        <v>26.75396388879138</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="X44" t="n">
-        <v>26.75396388879138</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.75396388879138</v>
+        <v>30.07591440498304</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.07591440498298</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="C45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="D45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="E45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="F45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="G45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="H45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="I45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="J45" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="K45" t="n">
-        <v>2.207202020825289</v>
+        <v>29.5213270285383</v>
       </c>
       <c r="L45" t="n">
-        <v>29.52132702853824</v>
+        <v>29.5213270285383</v>
       </c>
       <c r="M45" t="n">
-        <v>56.83545203625118</v>
+        <v>55.73185102583867</v>
       </c>
       <c r="N45" t="n">
-        <v>84.14957704396413</v>
+        <v>55.73185102583867</v>
       </c>
       <c r="O45" t="n">
-        <v>110.3601010412644</v>
+        <v>55.73185102583867</v>
       </c>
       <c r="P45" t="n">
-        <v>110.3601010412644</v>
+        <v>83.04597603355167</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3601010412644</v>
+        <v>110.3601010412647</v>
       </c>
       <c r="R45" t="n">
-        <v>110.3601010412644</v>
+        <v>85.81333917329853</v>
       </c>
       <c r="S45" t="n">
-        <v>110.3601010412644</v>
+        <v>85.81333917329853</v>
       </c>
       <c r="T45" t="n">
-        <v>110.3601010412644</v>
+        <v>85.81333917329853</v>
       </c>
       <c r="U45" t="n">
-        <v>82.49138865710675</v>
+        <v>57.94462678914078</v>
       </c>
       <c r="V45" t="n">
-        <v>82.49138865710675</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="W45" t="n">
-        <v>82.49138865710675</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="X45" t="n">
-        <v>82.49138865710675</v>
+        <v>30.07591440498304</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.62267627294906</v>
+        <v>2.207202020825294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="C46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="D46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="E46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="F46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="G46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="H46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="I46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="J46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="K46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="L46" t="n">
-        <v>29.52132702853824</v>
+        <v>29.5213270285383</v>
       </c>
       <c r="M46" t="n">
-        <v>56.83545203625118</v>
+        <v>56.8354520362513</v>
       </c>
       <c r="N46" t="n">
-        <v>70.83646221938152</v>
+        <v>84.14957704396431</v>
       </c>
       <c r="O46" t="n">
-        <v>98.15058722709446</v>
+        <v>98.15058722709469</v>
       </c>
       <c r="P46" t="n">
-        <v>110.3601010412644</v>
+        <v>110.3601010412647</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.49138865710675</v>
+        <v>82.49138865710692</v>
       </c>
       <c r="R46" t="n">
-        <v>54.62267627294906</v>
+        <v>54.62267627294918</v>
       </c>
       <c r="S46" t="n">
-        <v>26.75396388879138</v>
+        <v>26.75396388879143</v>
       </c>
       <c r="T46" t="n">
-        <v>26.75396388879138</v>
+        <v>26.75396388879143</v>
       </c>
       <c r="U46" t="n">
-        <v>26.75396388879138</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="V46" t="n">
-        <v>26.75396388879138</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="W46" t="n">
-        <v>26.75396388879138</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="X46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.207202020825289</v>
+        <v>2.207202020825294</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>246.5651278099304</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L2" t="n">
         <v>263.3564402303034</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O3" t="n">
-        <v>169.0715212093943</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>167.5717993463377</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M5" t="n">
         <v>256.8215099922226</v>
       </c>
       <c r="N5" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
         <v>258.8230210155857</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M6" t="n">
         <v>169.7240591823345</v>
@@ -8310,10 +8310,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M9" t="n">
         <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>157.8169888482831</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>157.4944369025682</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>184.7923061645975</v>
+        <v>236.1330139140975</v>
       </c>
       <c r="L11" t="n">
         <v>243.3173970729474</v>
@@ -8699,16 +8699,16 @@
         <v>232.9624338181587</v>
       </c>
       <c r="N11" t="n">
-        <v>231.2408507217466</v>
+        <v>197.5893913136237</v>
       </c>
       <c r="O11" t="n">
-        <v>232.6109002164647</v>
+        <v>183.3445644972475</v>
       </c>
       <c r="P11" t="n">
         <v>191.3298397891115</v>
       </c>
       <c r="Q11" t="n">
-        <v>192.3400815515701</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>165.207610971962</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L12" t="n">
-        <v>142.3034920922294</v>
+        <v>142.3034920922293</v>
       </c>
       <c r="M12" t="n">
         <v>155.8560076522585</v>
@@ -8787,7 +8787,7 @@
         <v>105.6232832715133</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.029798408394</v>
+        <v>172.3705061578941</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,25 +8924,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>157.4944369025682</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>184.7923061645975</v>
+        <v>236.1330139140975</v>
       </c>
       <c r="L14" t="n">
-        <v>191.9766893234474</v>
+        <v>243.3173970729474</v>
       </c>
       <c r="M14" t="n">
-        <v>210.9131526795413</v>
+        <v>232.9624338181587</v>
       </c>
       <c r="N14" t="n">
-        <v>231.2408507217466</v>
+        <v>197.5893913136237</v>
       </c>
       <c r="O14" t="n">
-        <v>234.6852722467475</v>
+        <v>183.3445644972475</v>
       </c>
       <c r="P14" t="n">
-        <v>242.6705475386115</v>
+        <v>191.3298397891115</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,10 +9015,10 @@
         <v>104.5152999027584</v>
       </c>
       <c r="N15" t="n">
-        <v>144.0680298621203</v>
+        <v>128.7131563848761</v>
       </c>
       <c r="O15" t="n">
-        <v>143.2574558269168</v>
+        <v>158.612329304161</v>
       </c>
       <c r="P15" t="n">
         <v>156.9639910210133</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>243.8876835233127</v>
+        <v>184.7923061645975</v>
       </c>
       <c r="L17" t="n">
         <v>191.9766893234474</v>
       </c>
       <c r="M17" t="n">
-        <v>181.6217260686586</v>
+        <v>240.7171034273739</v>
       </c>
       <c r="N17" t="n">
-        <v>205.0307409386281</v>
+        <v>238.9955203309618</v>
       </c>
       <c r="O17" t="n">
         <v>242.4399418559627</v>
       </c>
       <c r="P17" t="n">
-        <v>250.4252171478267</v>
+        <v>236.4353468638276</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>192.3400815515701</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>112.8105338934474</v>
       </c>
       <c r="K18" t="n">
-        <v>172.9622805811772</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L18" t="n">
-        <v>149.7448417172338</v>
+        <v>106.3176578199735</v>
       </c>
       <c r="M18" t="n">
-        <v>104.5152999027584</v>
+        <v>163.6106772614737</v>
       </c>
       <c r="N18" t="n">
-        <v>92.72732211262029</v>
+        <v>151.8226994713355</v>
       </c>
       <c r="O18" t="n">
-        <v>166.3669989133762</v>
+        <v>163.9793068988827</v>
       </c>
       <c r="P18" t="n">
-        <v>164.7186606302285</v>
+        <v>105.6232832715133</v>
       </c>
       <c r="Q18" t="n">
-        <v>121.029798408394</v>
+        <v>180.1251757671093</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,7 +9483,7 @@
         <v>113.866903222462</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>123.1214529512355</v>
       </c>
       <c r="M21" t="n">
         <v>420.1732119162684</v>
@@ -9492,13 +9492,13 @@
         <v>408.3852341261302</v>
       </c>
       <c r="O21" t="n">
-        <v>235.1909162519609</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>121.029798408394</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>335.9609383196595</v>
       </c>
       <c r="M24" t="n">
         <v>420.1732119162684</v>
@@ -9729,13 +9729,13 @@
         <v>408.3852341261302</v>
       </c>
       <c r="O24" t="n">
-        <v>297.4320678302682</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>105.6232832715133</v>
       </c>
       <c r="Q24" t="n">
-        <v>121.029798408394</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>113.866903222462</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,13 +9963,13 @@
         <v>420.1732119162684</v>
       </c>
       <c r="N27" t="n">
-        <v>249.7138311013619</v>
+        <v>408.3852341261302</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>297.4320678302682</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>105.6232832715133</v>
       </c>
       <c r="Q27" t="n">
         <v>121.029798408394</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>112.8105338934474</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>113.866903222462</v>
@@ -10200,13 +10200,13 @@
         <v>420.1732119162684</v>
       </c>
       <c r="N30" t="n">
-        <v>173.9468432208679</v>
+        <v>373.5058271423305</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>105.6232832715133</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,16 +10428,16 @@
         <v>112.8105338934474</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>136.4019543981969</v>
       </c>
       <c r="M33" t="n">
         <v>420.1732119162684</v>
       </c>
       <c r="N33" t="n">
-        <v>112.3959987582065</v>
+        <v>408.3852341261302</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>121.029798408394</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>157.4944369025682</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>355.1951955064712</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10601,10 +10601,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>227.7556017496636</v>
       </c>
       <c r="Q35" t="n">
-        <v>192.3400815515701</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>106.3176578199735</v>
       </c>
       <c r="M36" t="n">
-        <v>396.4225294270844</v>
+        <v>366.6845831148952</v>
       </c>
       <c r="N36" t="n">
-        <v>384.6345516369463</v>
+        <v>384.6345516369464</v>
       </c>
       <c r="O36" t="n">
-        <v>107.271621554661</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>160.1944987762145</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>157.4944369025682</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,10 +10829,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>375.445336179348</v>
       </c>
       <c r="N38" t="n">
-        <v>354.9059962596704</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>192.3400815515701</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>112.8105338934474</v>
       </c>
       <c r="K39" t="n">
-        <v>113.866903222462</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>106.3176578199735</v>
       </c>
       <c r="M39" t="n">
-        <v>396.4225294270844</v>
+        <v>229.36675077174</v>
       </c>
       <c r="N39" t="n">
-        <v>354.8966053247572</v>
+        <v>384.6345516369464</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>199.3969476966954</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>324.7650686183634</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>113.866903222462</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>106.3176578199735</v>
       </c>
       <c r="M42" t="n">
-        <v>304.2510600473818</v>
+        <v>346.1720320784181</v>
       </c>
       <c r="N42" t="n">
-        <v>92.72732211262029</v>
+        <v>376.8798820277312</v>
       </c>
       <c r="O42" t="n">
         <v>391.4241814697718</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>121.029798408394</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,19 +11303,19 @@
         <v>219.5667145837635</v>
       </c>
       <c r="M44" t="n">
-        <v>209.2117513289747</v>
+        <v>209.2117513289748</v>
       </c>
       <c r="N44" t="n">
-        <v>207.4901682325626</v>
+        <v>186.4005106288618</v>
       </c>
       <c r="O44" t="n">
-        <v>209.8198412621973</v>
+        <v>210.9345897575636</v>
       </c>
       <c r="P44" t="n">
         <v>191.3298397891115</v>
       </c>
       <c r="Q44" t="n">
-        <v>192.3400815515701</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,25 +11376,25 @@
         <v>112.8105338934474</v>
       </c>
       <c r="K45" t="n">
-        <v>113.866903222462</v>
+        <v>141.4569284827782</v>
       </c>
       <c r="L45" t="n">
-        <v>133.9076830802896</v>
+        <v>106.3176578199735</v>
       </c>
       <c r="M45" t="n">
-        <v>132.1053251630746</v>
+        <v>130.9905766677083</v>
       </c>
       <c r="N45" t="n">
-        <v>120.3173473729364</v>
+        <v>92.72732211262029</v>
       </c>
       <c r="O45" t="n">
-        <v>133.7468983196108</v>
+        <v>107.271621554661</v>
       </c>
       <c r="P45" t="n">
-        <v>105.6232832715133</v>
+        <v>133.2133085318295</v>
       </c>
       <c r="Q45" t="n">
-        <v>121.029798408394</v>
+        <v>148.6198236687102</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11461,13 +11461,13 @@
         <v>143.9691585681456</v>
       </c>
       <c r="M46" t="n">
-        <v>147.0043088110465</v>
+        <v>147.0043088110466</v>
       </c>
       <c r="N46" t="n">
-        <v>122.780418465863</v>
+        <v>136.2280091977647</v>
       </c>
       <c r="O46" t="n">
-        <v>148.4530586277416</v>
+        <v>135.00546789584</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -22547,16 +22547,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>340.9715975217211</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.3817473713965</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F2" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22598,10 +22598,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="3">
@@ -22641,13 +22641,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>84.64541897618032</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>65.84192992838649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,22 +22671,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W3" t="n">
-        <v>224.1049579006035</v>
+        <v>227.3936889116331</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22714,19 +22714,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>117.8310227626151</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>140.4009540981426</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>139.7784131469302</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2182708028786</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,13 +22784,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>357.6290758229753</v>
+        <v>367.6197750375201</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>182.8858643100898</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,10 +22826,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22866,7 +22866,7 @@
         <v>145.1184737279996</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>123.1437713153523</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22926,7 +22926,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>181.471690954191</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>178.0926705169882</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.8117118238322</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,16 +22981,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>198.9687459771361</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23033,7 +23033,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.9507326204611</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>300.1622332098187</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>321.6509434570969</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,16 +23097,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23118,10 +23118,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>178.1829599431613</v>
+        <v>182.2182822804489</v>
       </c>
       <c r="Y9" t="n">
-        <v>181.3814015280179</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.8117118238322</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>134.6371472471234</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>65.76915485635664</v>
       </c>
       <c r="K10" t="n">
-        <v>2.542173200479958</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23276,7 +23276,7 @@
         <v>336.632975664061</v>
       </c>
       <c r="I11" t="n">
-        <v>148.4373163963334</v>
+        <v>199.7780241458334</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,22 +23303,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>81.09763945106721</v>
+        <v>132.4383472005673</v>
       </c>
       <c r="S11" t="n">
-        <v>157.4759109007659</v>
+        <v>202.6968062865256</v>
       </c>
       <c r="T11" t="n">
-        <v>221.8811447876301</v>
+        <v>170.54043703813</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3234538485287</v>
+        <v>206.102558462769</v>
       </c>
       <c r="V11" t="n">
         <v>276.4115507206349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>297.900260967913</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>115.1924759003673</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>121.3677912388157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,10 +23352,10 @@
         <v>137.1950478650214</v>
       </c>
       <c r="H12" t="n">
-        <v>110.8015433829322</v>
+        <v>65.58064799717252</v>
       </c>
       <c r="I12" t="n">
-        <v>84.28486096200552</v>
+        <v>32.94415321250549</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,16 +23391,16 @@
         <v>199.5662932341379</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5909066144886</v>
+        <v>225.9316143639887</v>
       </c>
       <c r="V12" t="n">
-        <v>181.4598793999252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>206.4740877751599</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>154.4322774539774</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23425,22 +23425,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>100.2001526371716</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8665076862639</v>
+        <v>116.5257999367638</v>
       </c>
       <c r="H13" t="n">
-        <v>161.1205061855615</v>
+        <v>109.7797984360615</v>
       </c>
       <c r="I13" t="n">
-        <v>151.7072722761615</v>
+        <v>100.3665645266615</v>
       </c>
       <c r="J13" t="n">
         <v>84.55903289249518</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>7.808146638151134</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.39853029685813</v>
+        <v>75.73923804635817</v>
       </c>
       <c r="R13" t="n">
-        <v>120.3559846215254</v>
+        <v>171.6966923710254</v>
       </c>
       <c r="S13" t="n">
-        <v>170.5066885093125</v>
+        <v>221.8473962588125</v>
       </c>
       <c r="T13" t="n">
-        <v>190.001007172204</v>
+        <v>227.4137559198125</v>
       </c>
       <c r="U13" t="n">
         <v>286.312239992553</v>
@@ -23504,13 +23504,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>355.5353379922114</v>
       </c>
       <c r="G14" t="n">
-        <v>363.6845415242869</v>
+        <v>415.0252492737869</v>
       </c>
       <c r="H14" t="n">
-        <v>285.2922679145609</v>
+        <v>336.632975664061</v>
       </c>
       <c r="I14" t="n">
         <v>148.4373163963334</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>132.4383472005673</v>
+        <v>81.09763945106721</v>
       </c>
       <c r="S14" t="n">
-        <v>202.6968062865256</v>
+        <v>157.4759109007659</v>
       </c>
       <c r="T14" t="n">
         <v>221.8811447876301</v>
       </c>
       <c r="U14" t="n">
-        <v>206.102558462769</v>
+        <v>251.3234538485287</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23580,13 +23580,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>106.3043727059009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>91.97415247926178</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H15" t="n">
         <v>110.8015433829322</v>
@@ -23622,22 +23622,22 @@
         <v>90.9397140422633</v>
       </c>
       <c r="S15" t="n">
-        <v>168.9254190080863</v>
+        <v>123.7045236223266</v>
       </c>
       <c r="T15" t="n">
         <v>199.5662932341379</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9316143639887</v>
+        <v>174.5909066144886</v>
       </c>
       <c r="V15" t="n">
-        <v>181.4598793999252</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>200.3542754114196</v>
       </c>
       <c r="X15" t="n">
-        <v>154.4322774539774</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23665,19 +23665,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4537589386554</v>
+        <v>167.8665076862639</v>
       </c>
       <c r="H16" t="n">
-        <v>109.7797984360615</v>
+        <v>161.1205061855615</v>
       </c>
       <c r="I16" t="n">
-        <v>100.3665645266615</v>
+        <v>151.7072722761615</v>
       </c>
       <c r="J16" t="n">
-        <v>33.21832514299514</v>
+        <v>84.55903289249518</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>7.808146638151134</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.73923804635817</v>
+        <v>24.39853029685812</v>
       </c>
       <c r="R16" t="n">
         <v>171.6966923710254</v>
@@ -23707,13 +23707,13 @@
         <v>227.4137559198125</v>
       </c>
       <c r="U16" t="n">
-        <v>286.312239992553</v>
+        <v>234.9715322430529</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>200.796935574328</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>241.3021029508314</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>347.7806683829962</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>355.9298719150717</v>
+        <v>415.0252492737869</v>
       </c>
       <c r="H17" t="n">
-        <v>277.5375983053457</v>
+        <v>336.632975664061</v>
       </c>
       <c r="I17" t="n">
-        <v>147.726815768277</v>
+        <v>199.7780241458334</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>132.4383472005673</v>
+        <v>73.34296984185201</v>
       </c>
       <c r="S17" t="n">
         <v>202.6968062865256</v>
       </c>
       <c r="T17" t="n">
-        <v>221.8811447876301</v>
+        <v>162.7857674289148</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3234538485287</v>
+        <v>192.2280764898134</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>275.7010500925786</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>113.6131216296005</v>
       </c>
       <c r="D18" t="n">
-        <v>88.34968820592351</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>93.01800401582753</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.1950478650214</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>90.9397140422633</v>
+        <v>31.84433668354806</v>
       </c>
       <c r="S18" t="n">
         <v>168.9254190080863</v>
@@ -23865,7 +23865,7 @@
         <v>199.5662932341379</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9316143639887</v>
+        <v>173.8804059864323</v>
       </c>
       <c r="V18" t="n">
         <v>173.70520979071</v>
@@ -23877,7 +23877,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>146.5873184185891</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23905,13 +23905,13 @@
         <v>167.8665076862639</v>
       </c>
       <c r="H19" t="n">
-        <v>161.1205061855615</v>
+        <v>123.9629162594638</v>
       </c>
       <c r="I19" t="n">
-        <v>151.7072722761615</v>
+        <v>92.61189491744628</v>
       </c>
       <c r="J19" t="n">
-        <v>84.55903289249518</v>
+        <v>25.46365553377994</v>
       </c>
       <c r="K19" t="n">
         <v>7.808146638151134</v>
@@ -23932,10 +23932,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.64386068764293</v>
+        <v>75.73923804635817</v>
       </c>
       <c r="R19" t="n">
-        <v>112.6013150123102</v>
+        <v>171.6966923710254</v>
       </c>
       <c r="S19" t="n">
         <v>221.8473962588125</v>
@@ -23944,10 +23944,10 @@
         <v>227.4137559198125</v>
       </c>
       <c r="U19" t="n">
-        <v>227.2168626338377</v>
+        <v>286.312239992553</v>
       </c>
       <c r="V19" t="n">
-        <v>214.9800533977303</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>159.4892759933796</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>67.07592964997065</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,16 +23975,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>66.27245805875185</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>91.21813372820151</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>99.367337260277</v>
+        <v>415.0252492737869</v>
       </c>
       <c r="H20" t="n">
-        <v>58.60148676256171</v>
+        <v>336.632975664061</v>
       </c>
       <c r="I20" t="n">
         <v>199.7780241458334</v>
@@ -24026,16 +24026,16 @@
         <v>251.3234538485287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>49.72076956863566</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>33.58305670390308</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>70.58002664254366</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24048,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,13 +24060,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H21" t="n">
-        <v>102.8984146339319</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>84.28486096200552</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>90.9397140422633</v>
       </c>
       <c r="S21" t="n">
         <v>168.9254190080863</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.5662932341379</v>
       </c>
       <c r="U21" t="n">
         <v>225.9316143639887</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>102.479320043262</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,10 +24175,10 @@
         <v>171.6966923710254</v>
       </c>
       <c r="S22" t="n">
-        <v>221.8473962588125</v>
+        <v>3.400597383682197</v>
       </c>
       <c r="T22" t="n">
-        <v>8.966957044682175</v>
+        <v>227.4137559198125</v>
       </c>
       <c r="U22" t="n">
         <v>286.312239992553</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>49.61497975749762</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>39.02512960717303</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>66.27245805875185</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,7 +24224,7 @@
         <v>336.632975664061</v>
       </c>
       <c r="I23" t="n">
-        <v>163.104921505547</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>132.4383472005673</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>202.6968062865256</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.8811447876301</v>
       </c>
       <c r="U23" t="n">
         <v>251.3234538485287</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>291.4776359228032</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.1950478650214</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>110.8015433829322</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>84.28486096200552</v>
+        <v>1.604199840412932</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24342,13 +24342,13 @@
         <v>225.9316143639887</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>39.43773859132176</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>75.73923804635817</v>
       </c>
       <c r="R25" t="n">
-        <v>171.6966923710254</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.400597383682197</v>
+        <v>221.8473962588125</v>
       </c>
       <c r="T25" t="n">
         <v>227.4137559198125</v>
       </c>
       <c r="U25" t="n">
-        <v>286.312239992553</v>
+        <v>239.5621334884481</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>104.7023527619813</v>
       </c>
       <c r="C26" t="n">
-        <v>49.61497975749757</v>
+        <v>49.61497975749762</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>39.02512960717303</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>66.27245805875185</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>242.9950172922409</v>
+        <v>415.0252492737869</v>
       </c>
       <c r="H26" t="n">
-        <v>20.97506365055096</v>
+        <v>336.632975664061</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>199.7780241458334</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>202.6968062865256</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.8811447876301</v>
       </c>
       <c r="U26" t="n">
         <v>251.3234538485287</v>
@@ -24525,22 +24525,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>20.36620848248526</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>110.8015433829322</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>84.28486096200552</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>90.9397140422633</v>
       </c>
       <c r="S27" t="n">
-        <v>168.9254190080863</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>199.5662932341379</v>
@@ -24582,10 +24582,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>7.565429508506924</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>68.07619946146079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0.1378544769644918</v>
       </c>
     </row>
     <row r="29">
@@ -24683,13 +24683,13 @@
         <v>49.61497975749762</v>
       </c>
       <c r="D29" t="n">
-        <v>347.4522480412951</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>66.27245805875185</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>91.21813372820151</v>
       </c>
       <c r="G29" t="n">
         <v>415.0252492737869</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>132.4383472005673</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>202.6968062865256</v>
       </c>
       <c r="T29" t="n">
         <v>221.8811447876301</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3234538485287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>49.72076956863566</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24774,7 +24774,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.8015433829322</v>
+        <v>103.2369026458874</v>
       </c>
       <c r="I30" t="n">
         <v>84.28486096200552</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>58.19222726711085</v>
+        <v>90.9397140422633</v>
       </c>
       <c r="S30" t="n">
         <v>168.9254190080863</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.5662932341379</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9316143639887</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24886,10 +24886,10 @@
         <v>171.6966923710254</v>
       </c>
       <c r="S31" t="n">
-        <v>3.400597383682197</v>
+        <v>221.8473962588125</v>
       </c>
       <c r="T31" t="n">
-        <v>227.4137559198125</v>
+        <v>8.966957044682175</v>
       </c>
       <c r="U31" t="n">
         <v>286.312239992553</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>67.07592964997065</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>128.8445568402122</v>
       </c>
       <c r="G32" t="n">
         <v>415.0252492737869</v>
       </c>
       <c r="H32" t="n">
-        <v>58.60148676256171</v>
+        <v>336.632975664061</v>
       </c>
       <c r="I32" t="n">
         <v>199.7780241458334</v>
@@ -24983,7 +24983,7 @@
         <v>54.0731886649591</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.58002664254366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,22 +24999,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>47.70907052290933</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1950478650214</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.8015433829322</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>84.28486096200552</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>90.9397140422633</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>168.9254190080863</v>
@@ -25050,19 +25050,19 @@
         <v>199.5662932341379</v>
       </c>
       <c r="U33" t="n">
-        <v>63.41082436295332</v>
+        <v>225.9316143639887</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>128.6320024054349</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25129,7 +25129,7 @@
         <v>227.4137559198125</v>
       </c>
       <c r="U34" t="n">
-        <v>286.312239992553</v>
+        <v>67.86544111742268</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25169,7 +25169,7 @@
         <v>123.1180197494609</v>
       </c>
       <c r="H35" t="n">
-        <v>44.72574613973495</v>
+        <v>44.72574613973489</v>
       </c>
       <c r="I35" t="n">
         <v>199.7780241458334</v>
@@ -25205,10 +25205,10 @@
         <v>202.6968062865256</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.0927108711326</v>
       </c>
       <c r="U35" t="n">
-        <v>216.0927108711324</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25233,13 +25233,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>107.1786352973364</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>225.9316143639887</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>194.5316127008657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,10 +25330,10 @@
         <v>161.1205061855615</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>151.7072722761615</v>
       </c>
       <c r="J37" t="n">
-        <v>17.81950629352642</v>
+        <v>84.55903289249518</v>
       </c>
       <c r="K37" t="n">
         <v>7.808146638151134</v>
@@ -25369,7 +25369,7 @@
         <v>286.312239992553</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>33.69084444869767</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25445,19 +25445,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3234538485287</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>35.84502894580891</v>
+        <v>35.84502894580885</v>
       </c>
       <c r="W38" t="n">
-        <v>224.7998025022164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>204.7061587874749</v>
       </c>
       <c r="Y38" t="n">
-        <v>94.33070913172759</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25485,10 +25485,10 @@
         <v>137.1950478650214</v>
       </c>
       <c r="H39" t="n">
-        <v>63.31553683279738</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>84.28486096200552</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>90.9397140422633</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25527,7 +25527,7 @@
         <v>225.9316143639887</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2.561830604178454</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25600,7 +25600,7 @@
         <v>221.8473962588125</v>
       </c>
       <c r="T40" t="n">
-        <v>8.966957044682175</v>
+        <v>227.4137559198125</v>
       </c>
       <c r="U40" t="n">
         <v>286.312239992553</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>68.0761994614607</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,13 +25634,13 @@
         <v>104.4014668474533</v>
       </c>
       <c r="E41" t="n">
-        <v>97.77781015715095</v>
+        <v>97.7778101571509</v>
       </c>
       <c r="F41" t="n">
         <v>122.7234858266006</v>
       </c>
       <c r="G41" t="n">
-        <v>415.0252492737869</v>
+        <v>130.872689358676</v>
       </c>
       <c r="H41" t="n">
         <v>336.632975664061</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>102.0853787409428</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>156.1673531282731</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.1950478650214</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>18.97230526325143</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>75.73923804635817</v>
       </c>
       <c r="R43" t="n">
         <v>171.6966923710254</v>
@@ -25840,7 +25840,7 @@
         <v>227.4137559198125</v>
       </c>
       <c r="U43" t="n">
-        <v>143.6046791637809</v>
+        <v>67.86544111742271</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>330.3817473713966</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25880,7 @@
         <v>415.0252492737869</v>
       </c>
       <c r="H44" t="n">
-        <v>336.632975664061</v>
+        <v>309.0429504037448</v>
       </c>
       <c r="I44" t="n">
         <v>199.7780241458334</v>
@@ -25913,16 +25913,16 @@
         <v>104.8483219402511</v>
       </c>
       <c r="S44" t="n">
-        <v>202.6968062865256</v>
+        <v>178.3955120372391</v>
       </c>
       <c r="T44" t="n">
         <v>221.8811447876301</v>
       </c>
       <c r="U44" t="n">
-        <v>223.7334285882125</v>
+        <v>251.3234538485287</v>
       </c>
       <c r="V44" t="n">
-        <v>300.1622332098188</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>90.9397140422633</v>
+        <v>66.63841979297683</v>
       </c>
       <c r="S45" t="n">
         <v>168.9254190080863</v>
@@ -25998,10 +25998,10 @@
         <v>199.5662932341379</v>
       </c>
       <c r="U45" t="n">
-        <v>198.3415891036726</v>
+        <v>198.3415891036725</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>205.2105618891091</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.14921278604206</v>
+        <v>48.149212786042</v>
       </c>
       <c r="R46" t="n">
         <v>144.1066671107093</v>
       </c>
       <c r="S46" t="n">
-        <v>194.2573709984964</v>
+        <v>194.2573709984963</v>
       </c>
       <c r="T46" t="n">
         <v>227.4137559198125</v>
       </c>
       <c r="U46" t="n">
-        <v>286.312239992553</v>
+        <v>262.0109457432665</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4083611397507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>345959.5426495991</v>
+        <v>345959.5426495992</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369194.9961255096</v>
+        <v>369194.9961255095</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369194.9961255096</v>
+        <v>369194.9961255098</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>375263.8242424058</v>
+        <v>375263.824242406</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>558047.1127869248</v>
+        <v>558047.1127869249</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>558047.1127869248</v>
+        <v>558047.1127869247</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>558047.1127869247</v>
+        <v>558047.1127869248</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>558047.112786925</v>
+        <v>558047.1127869249</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>541139.7454679784</v>
+        <v>541139.7454679783</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>541139.7454679784</v>
+        <v>541139.7454679783</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98006.17735623999</v>
+        <v>98006.17735623996</v>
       </c>
       <c r="C2" t="n">
-        <v>98006.17735623999</v>
+        <v>98006.17735624</v>
       </c>
       <c r="D2" t="n">
-        <v>98006.17735623998</v>
+        <v>98006.17735624002</v>
       </c>
       <c r="E2" t="n">
         <v>106667.0624537782</v>
@@ -26329,31 +26329,31 @@
         <v>108382.5002144697</v>
       </c>
       <c r="H2" t="n">
-        <v>160048.7114092929</v>
+        <v>160048.711409293</v>
       </c>
       <c r="I2" t="n">
         <v>160048.7114092929</v>
       </c>
       <c r="J2" t="n">
+        <v>160048.711409293</v>
+      </c>
+      <c r="K2" t="n">
+        <v>160048.7114092931</v>
+      </c>
+      <c r="L2" t="n">
         <v>160048.7114092929</v>
       </c>
-      <c r="K2" t="n">
-        <v>160048.7114092929</v>
-      </c>
-      <c r="L2" t="n">
-        <v>160048.711409293</v>
-      </c>
       <c r="M2" t="n">
-        <v>155269.6114291743</v>
+        <v>155269.6114291742</v>
       </c>
       <c r="N2" t="n">
         <v>155269.6114291742</v>
       </c>
       <c r="O2" t="n">
-        <v>153709.2208428361</v>
+        <v>153709.2208428362</v>
       </c>
       <c r="P2" t="n">
-        <v>100947.8116578984</v>
+        <v>100947.8116578985</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2125.438619841748</v>
+        <v>2125.438619841745</v>
       </c>
       <c r="H3" t="n">
         <v>69222.88091267551</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210156</v>
+        <v>7218.764569210163</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40625.85511956783</v>
+        <v>40434.72875522904</v>
       </c>
       <c r="C4" t="n">
-        <v>40625.85511956783</v>
+        <v>40434.72875522904</v>
       </c>
       <c r="D4" t="n">
-        <v>40625.85511956782</v>
+        <v>40434.72875522905</v>
       </c>
       <c r="E4" t="n">
-        <v>36862.57692755052</v>
+        <v>36689.262765656</v>
       </c>
       <c r="F4" t="n">
-        <v>36862.57692755052</v>
+        <v>36689.262765656</v>
       </c>
       <c r="G4" t="n">
-        <v>37592.86157228718</v>
+        <v>37416.13881014619</v>
       </c>
       <c r="H4" t="n">
-        <v>59587.85407617786</v>
+        <v>59308.46978690438</v>
       </c>
       <c r="I4" t="n">
-        <v>59587.85407617785</v>
+        <v>59308.46978690438</v>
       </c>
       <c r="J4" t="n">
-        <v>59587.85407617786</v>
+        <v>59308.46978690437</v>
       </c>
       <c r="K4" t="n">
-        <v>59587.85407617786</v>
+        <v>59308.46978690437</v>
       </c>
       <c r="L4" t="n">
-        <v>59587.85407617786</v>
+        <v>59308.46978690438</v>
       </c>
       <c r="M4" t="n">
-        <v>57553.32772312902</v>
+        <v>57283.43957632335</v>
       </c>
       <c r="N4" t="n">
-        <v>57553.32772312902</v>
+        <v>57283.43957632335</v>
       </c>
       <c r="O4" t="n">
-        <v>56889.04872035424</v>
+        <v>56622.26109276243</v>
       </c>
       <c r="P4" t="n">
-        <v>34427.81588209864</v>
+        <v>34265.86595627214</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>4626.264391939997</v>
       </c>
       <c r="F5" t="n">
-        <v>4626.264391939997</v>
+        <v>4626.264391939998</v>
       </c>
       <c r="G5" t="n">
         <v>5097.748304180282</v>
@@ -26500,16 +26500,16 @@
         <v>20696.7504111918</v>
       </c>
       <c r="M5" t="n">
-        <v>19252.70891584941</v>
+        <v>19252.70891584942</v>
       </c>
       <c r="N5" t="n">
-        <v>19252.70891584941</v>
+        <v>19252.70891584942</v>
       </c>
       <c r="O5" t="n">
-        <v>18781.22500360913</v>
+        <v>18781.22500360914</v>
       </c>
       <c r="P5" t="n">
-        <v>3182.222896597614</v>
+        <v>3182.222896597617</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12829.19666553201</v>
+        <v>13020.32302987078</v>
       </c>
       <c r="C6" t="n">
-        <v>22075.24870084494</v>
+        <v>22266.37506518375</v>
       </c>
       <c r="D6" t="n">
-        <v>22075.24870084493</v>
+        <v>22266.37506518375</v>
       </c>
       <c r="E6" t="n">
-        <v>2631.737074040527</v>
+        <v>2805.051235935035</v>
       </c>
       <c r="F6" t="n">
-        <v>65178.22113428768</v>
+        <v>65351.53529618221</v>
       </c>
       <c r="G6" t="n">
-        <v>63566.45171816047</v>
+        <v>63743.17448030151</v>
       </c>
       <c r="H6" t="n">
-        <v>10541.22600924772</v>
+        <v>10820.61029852128</v>
       </c>
       <c r="I6" t="n">
-        <v>79764.1069219233</v>
+        <v>80043.49121119677</v>
       </c>
       <c r="J6" t="n">
-        <v>72545.34235271311</v>
+        <v>72824.72664198665</v>
       </c>
       <c r="K6" t="n">
-        <v>79764.10692192323</v>
+        <v>80043.49121119689</v>
       </c>
       <c r="L6" t="n">
-        <v>79764.10692192335</v>
+        <v>80043.49121119674</v>
       </c>
       <c r="M6" t="n">
-        <v>78463.57479019585</v>
+        <v>78733.46293700146</v>
       </c>
       <c r="N6" t="n">
-        <v>78463.57479019579</v>
+        <v>78733.46293700146</v>
       </c>
       <c r="O6" t="n">
-        <v>78038.94711887276</v>
+        <v>78305.73474646459</v>
       </c>
       <c r="P6" t="n">
-        <v>63337.77287920217</v>
+        <v>63499.72280502876</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26796,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="E4" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="F4" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="G4" t="n">
         <v>59.09537735871524</v>
@@ -26811,7 +26811,7 @@
         <v>315.6579120135099</v>
       </c>
       <c r="J4" t="n">
-        <v>315.65791201351</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="K4" t="n">
         <v>315.6579120135099</v>
@@ -26820,16 +26820,16 @@
         <v>315.6579120135099</v>
       </c>
       <c r="M4" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="N4" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="O4" t="n">
-        <v>284.1525599151108</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>23.7506824891839</v>
+        <v>23.75068248918389</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.754669609215199</v>
+        <v>7.754669609215187</v>
       </c>
       <c r="H4" t="n">
         <v>256.5625346547947</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.7506824891839</v>
+        <v>23.75068248918389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>7.754669609215199</v>
+        <v>7.754669609215187</v>
       </c>
       <c r="P4" t="n">
         <v>256.5625346547947</v>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L2" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="M2" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="N3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>27.59002526031614</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M5" t="n">
-        <v>26.47527676494984</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>27.59002526031614</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M6" t="n">
         <v>27.59002526031614</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M9" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.60217826950556</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="L11" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="M11" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="N11" t="n">
-        <v>51.34070774950004</v>
+        <v>17.68924834137711</v>
       </c>
       <c r="O11" t="n">
-        <v>49.26633571921722</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>19.97490910833454</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>13.28050144696141</v>
       </c>
       <c r="K12" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>35.98583427225581</v>
+        <v>35.98583427225579</v>
       </c>
       <c r="M12" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="N12" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,10 +35574,10 @@
         <v>46.09556823372495</v>
       </c>
       <c r="M13" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="N13" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950003</v>
       </c>
       <c r="O13" t="n">
         <v>42.17863299845696</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.60217826950556</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="M14" t="n">
-        <v>29.29142661088266</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="N14" t="n">
-        <v>51.34070774950004</v>
+        <v>17.68924834137714</v>
       </c>
       <c r="O14" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>51.34070774950004</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>19.97490910833454</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>51.34070774950004</v>
+        <v>35.98583427225583</v>
       </c>
       <c r="O15" t="n">
-        <v>35.98583427225581</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="P15" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,10 +35811,10 @@
         <v>46.09556823372495</v>
       </c>
       <c r="M16" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="N16" t="n">
-        <v>51.34070774950004</v>
+        <v>51.34070774950005</v>
       </c>
       <c r="O16" t="n">
         <v>42.17863299845696</v>
@@ -35884,25 +35884,25 @@
         <v>11.60217826950556</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>25.13059796638159</v>
+        <v>59.09537735871524</v>
       </c>
       <c r="O17" t="n">
         <v>59.09537735871524</v>
       </c>
       <c r="P17" t="n">
-        <v>59.09537735871524</v>
+        <v>45.10550707471613</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.97490910833454</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.28050144696141</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>59.09537735871524</v>
       </c>
-      <c r="L18" t="n">
-        <v>43.42718389726031</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>59.09537735871524</v>
       </c>
       <c r="O18" t="n">
+        <v>56.7076853442217</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>59.09537735871524</v>
-      </c>
-      <c r="P18" t="n">
-        <v>59.09537735871524</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>264.5226874834856</v>
+        <v>16.803795131262</v>
       </c>
       <c r="M21" t="n">
         <v>315.6579120135099</v>
@@ -36212,13 +36212,13 @@
         <v>315.6579120135099</v>
       </c>
       <c r="O21" t="n">
-        <v>127.9192946972999</v>
+        <v>286.5906977220685</v>
       </c>
       <c r="P21" t="n">
         <v>212.8394853684239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>89.04748932745505</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>13.28050144696141</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5983337901166</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>264.5226874834856</v>
+        <v>229.643280499686</v>
       </c>
       <c r="M24" t="n">
         <v>315.6579120135099</v>
@@ -36449,13 +36449,13 @@
         <v>315.6579120135099</v>
       </c>
       <c r="O24" t="n">
-        <v>190.1604462756073</v>
+        <v>286.5906977220685</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>89.04748932745505</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>13.28050144696141</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>150.5983337901166</v>
       </c>
       <c r="L27" t="n">
         <v>264.5226874834856</v>
       </c>
       <c r="M27" t="n">
-        <v>315.65791201351</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="N27" t="n">
-        <v>156.9865089887416</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="O27" t="n">
-        <v>286.5906977220685</v>
+        <v>190.1604462756073</v>
       </c>
       <c r="P27" t="n">
-        <v>212.8394853684239</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>197.4556167654979</v>
       </c>
       <c r="P29" t="n">
-        <v>130.4688683823712</v>
+        <v>130.468868382371</v>
       </c>
       <c r="Q29" t="n">
         <v>19.97490910833454</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>13.28050144696141</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>315.6579120135099</v>
       </c>
       <c r="N30" t="n">
-        <v>81.21952110824763</v>
+        <v>280.7785050297102</v>
       </c>
       <c r="O30" t="n">
         <v>286.5906977220685</v>
       </c>
       <c r="P30" t="n">
-        <v>212.8394853684239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>89.04748932745505</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.60217826950544</v>
+        <v>11.60217826950556</v>
       </c>
       <c r="K32" t="n">
         <v>139.3531064065672</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5983337901166</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>264.5226874834856</v>
+        <v>30.08429657822341</v>
       </c>
       <c r="M33" t="n">
         <v>315.6579120135099</v>
       </c>
       <c r="N33" t="n">
-        <v>19.66867664558618</v>
+        <v>315.6579120135099</v>
       </c>
       <c r="O33" t="n">
         <v>286.5906977220685</v>
@@ -37166,7 +37166,7 @@
         <v>212.8394853684239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>89.04748932745505</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.60217826950556</v>
       </c>
       <c r="K35" t="n">
         <v>139.3531064065672</v>
       </c>
       <c r="L35" t="n">
-        <v>163.2185061830238</v>
+        <v>225.6845252270031</v>
       </c>
       <c r="M35" t="n">
         <v>267.8918074241739</v>
@@ -37321,10 +37321,10 @@
         <v>197.4556167654979</v>
       </c>
       <c r="P35" t="n">
-        <v>130.4688683823712</v>
+        <v>36.42576196055214</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>19.97490910833454</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>13.28050144696141</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5983337901166</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>264.5226874834856</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>291.907229524326</v>
+        <v>262.1692832121368</v>
       </c>
       <c r="N36" t="n">
-        <v>291.907229524326</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>286.5906977220685</v>
       </c>
       <c r="P36" t="n">
-        <v>54.57121550470119</v>
+        <v>212.8394853684239</v>
       </c>
       <c r="Q36" t="n">
         <v>89.04748932745505</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.60217826950556</v>
       </c>
       <c r="K38" t="n">
         <v>139.3531064065672</v>
@@ -37549,10 +37549,10 @@
         <v>225.6845252270031</v>
       </c>
       <c r="M38" t="n">
-        <v>267.8918074241739</v>
+        <v>193.8236101106893</v>
       </c>
       <c r="N38" t="n">
-        <v>175.0058532874238</v>
+        <v>257.4467814397376</v>
       </c>
       <c r="O38" t="n">
         <v>197.4556167654979</v>
@@ -37561,7 +37561,7 @@
         <v>130.4688683823712</v>
       </c>
       <c r="Q38" t="n">
-        <v>19.97490910833454</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.28050144696141</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>150.5983337901166</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>291.907229524326</v>
+        <v>124.8514508689816</v>
       </c>
       <c r="N39" t="n">
-        <v>262.1692832121369</v>
+        <v>291.9072295243261</v>
       </c>
       <c r="O39" t="n">
         <v>286.5906977220685</v>
@@ -37780,13 +37780,13 @@
         <v>11.60217826950556</v>
       </c>
       <c r="K41" t="n">
-        <v>14.60464153209793</v>
+        <v>139.3531064065672</v>
       </c>
       <c r="L41" t="n">
         <v>225.6845252270031</v>
       </c>
       <c r="M41" t="n">
-        <v>267.8918074241739</v>
+        <v>143.1433425497048</v>
       </c>
       <c r="N41" t="n">
         <v>257.4467814397376</v>
@@ -37859,25 +37859,25 @@
         <v>13.28050144696141</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5983337901166</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>264.5226874834856</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>199.7357601446233</v>
+        <v>241.6567321756596</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="O42" t="n">
-        <v>284.1525599151108</v>
+        <v>284.1525599151109</v>
       </c>
       <c r="P42" t="n">
         <v>212.8394853684239</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>89.04748932745505</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,22 +38020,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="M44" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="N44" t="n">
-        <v>27.59002526031611</v>
+        <v>6.500367656615321</v>
       </c>
       <c r="O44" t="n">
-        <v>26.47527676494981</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>19.97490910833454</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="L45" t="n">
-        <v>27.59002526031611</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>27.59002526031611</v>
+        <v>26.47527676494986</v>
       </c>
       <c r="N45" t="n">
-        <v>27.59002526031611</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>26.47527676494981</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="M46" t="n">
-        <v>27.59002526031611</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="N46" t="n">
-        <v>14.14243452841448</v>
+        <v>27.59002526031617</v>
       </c>
       <c r="O46" t="n">
-        <v>27.59002526031611</v>
+        <v>14.14243452841452</v>
       </c>
       <c r="P46" t="n">
         <v>12.33284223653533</v>
